--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09820506467891</v>
+        <v>22.09820506467886</v>
       </c>
       <c r="C2">
-        <v>26.62670068903228</v>
+        <v>26.62670068903212</v>
       </c>
       <c r="D2">
-        <v>7.296235693934381</v>
+        <v>7.296235693934245</v>
       </c>
       <c r="E2">
-        <v>5.204411275476216</v>
+        <v>5.2044112754762</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.53413268408694</v>
+        <v>64.53413268408659</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>11.16030701683648</v>
       </c>
       <c r="L2">
-        <v>16.67590017831388</v>
+        <v>16.67590017831385</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.28715977350368</v>
+        <v>20.28715977350356</v>
       </c>
       <c r="C3">
-        <v>24.56465729117599</v>
+        <v>24.56465729117597</v>
       </c>
       <c r="D3">
-        <v>6.737034918973735</v>
+        <v>6.737034918973769</v>
       </c>
       <c r="E3">
-        <v>5.118400741393519</v>
+        <v>5.118400741393525</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.355777503707</v>
+        <v>60.35577750370701</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.54054092965336</v>
+        <v>10.54054092965341</v>
       </c>
       <c r="L3">
-        <v>15.38727103170016</v>
+        <v>15.38727103170009</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.14648751518817</v>
+        <v>19.14648751518805</v>
       </c>
       <c r="C4">
-        <v>23.25810708746564</v>
+        <v>23.25810708746567</v>
       </c>
       <c r="D4">
-        <v>6.381636260074424</v>
+        <v>6.381636260074258</v>
       </c>
       <c r="E4">
-        <v>5.067645550775977</v>
+        <v>5.067645550775918</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.72757121594181</v>
+        <v>57.72757121594154</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.15777534228775</v>
+        <v>10.15777534228772</v>
       </c>
       <c r="L4">
-        <v>14.56973043791206</v>
+        <v>14.56973043791205</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67360788865073</v>
+        <v>18.67360788865095</v>
       </c>
       <c r="C5">
-        <v>22.71472764378381</v>
+        <v>22.71472764378387</v>
       </c>
       <c r="D5">
-        <v>6.23355571807238</v>
+        <v>6.233555718072483</v>
       </c>
       <c r="E5">
-        <v>5.047398237404909</v>
+        <v>5.047398237405011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.63987749372642</v>
+        <v>56.63987749372641</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.00118629445705</v>
+        <v>10.00118629445703</v>
       </c>
       <c r="L5">
-        <v>14.22940982391223</v>
+        <v>14.2294098239123</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59457914421024</v>
+        <v>18.59457914421033</v>
       </c>
       <c r="C6">
-        <v>22.62381855981229</v>
+        <v>22.62381855981247</v>
       </c>
       <c r="D6">
-        <v>6.211468459546722</v>
+        <v>6.211468459546684</v>
       </c>
       <c r="E6">
-        <v>5.044060398639619</v>
+        <v>5.044060398639688</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.45823959101318</v>
+        <v>56.45823959101327</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.975147829163472</v>
+        <v>9.975147829163525</v>
       </c>
       <c r="L6">
-        <v>14.17245247784694</v>
+        <v>14.17245247784701</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.14014366485252</v>
+        <v>19.14014366485258</v>
       </c>
       <c r="C7">
-        <v>23.25082414054965</v>
+        <v>23.2508241405498</v>
       </c>
       <c r="D7">
-        <v>6.379652636208951</v>
+        <v>6.379652636209024</v>
       </c>
       <c r="E7">
-        <v>5.067370820840567</v>
+        <v>5.067370820840814</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.71297067530386</v>
+        <v>57.71297067530398</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.15566601070967</v>
+        <v>10.15566601070974</v>
       </c>
       <c r="L7">
-        <v>14.56517043831727</v>
+        <v>14.56517043831728</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.47915605578427</v>
+        <v>21.47915605578437</v>
       </c>
       <c r="C8">
         <v>25.92358516856444</v>
       </c>
       <c r="D8">
-        <v>7.105778231373456</v>
+        <v>7.105778231373505</v>
       </c>
       <c r="E8">
-        <v>5.174274654684804</v>
+        <v>5.174274654684794</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.10577350414621</v>
+        <v>63.10577350414631</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.94702273950433</v>
+        <v>10.94702273950429</v>
       </c>
       <c r="L8">
-        <v>16.23668562867046</v>
+        <v>16.23668562867049</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.88627624015684</v>
+        <v>25.88627624015691</v>
       </c>
       <c r="C9">
-        <v>30.88876172626114</v>
+        <v>30.88876172626107</v>
       </c>
       <c r="D9">
-        <v>8.446421153712981</v>
+        <v>8.446421153713048</v>
       </c>
       <c r="E9">
-        <v>5.40486168856475</v>
+        <v>5.404861688564696</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.247896636812</v>
+        <v>73.24789663681165</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.48759530578947</v>
+        <v>12.48759530578946</v>
       </c>
       <c r="L9">
-        <v>19.3359608060852</v>
+        <v>19.33596080608523</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.10362471214999</v>
+        <v>29.10362471214997</v>
       </c>
       <c r="C10">
-        <v>34.45163052145168</v>
+        <v>34.45163052145163</v>
       </c>
       <c r="D10">
-        <v>9.402771570980491</v>
+        <v>9.402771570980441</v>
       </c>
       <c r="E10">
-        <v>5.595774962289154</v>
+        <v>5.595774962289179</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.5688944311237</v>
+        <v>80.56889443112361</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.62947969761184</v>
+        <v>13.6294796976118</v>
       </c>
       <c r="L10">
         <v>21.55870748117253</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.59220537650985</v>
+        <v>30.59220537650976</v>
       </c>
       <c r="C11">
-        <v>36.08149103526715</v>
+        <v>36.08149103526693</v>
       </c>
       <c r="D11">
-        <v>9.838764167898308</v>
+        <v>9.838764167898356</v>
       </c>
       <c r="E11">
-        <v>5.690258131516318</v>
+        <v>5.690258131516297</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.918551116038</v>
+        <v>83.9185511160379</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.22763010401748</v>
+        <v>14.22763010401744</v>
       </c>
       <c r="L11">
-        <v>22.57571437475869</v>
+        <v>22.57571437475861</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16307655564816</v>
+        <v>31.16307655564833</v>
       </c>
       <c r="C12">
-        <v>36.7033390932144</v>
+        <v>36.70333909321458</v>
       </c>
       <c r="D12">
-        <v>10.00486018337175</v>
+        <v>10.00486018337178</v>
       </c>
       <c r="E12">
-        <v>5.727506209566718</v>
+        <v>5.727506209566728</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.19569658632923</v>
+        <v>85.19569658632933</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.46210285286639</v>
+        <v>14.46210285286644</v>
       </c>
       <c r="L12">
-        <v>22.96379918960744</v>
+        <v>22.96379918960757</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0397383831406</v>
+        <v>31.03973838314067</v>
       </c>
       <c r="C13">
-        <v>36.56913907551785</v>
+        <v>36.56913907551802</v>
       </c>
       <c r="D13">
-        <v>9.969027088442981</v>
+        <v>9.969027088442903</v>
       </c>
       <c r="E13">
-        <v>5.719411291430137</v>
+        <v>5.719411291430239</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.92013418327625</v>
+        <v>84.92013418327666</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.41154956603034</v>
+        <v>14.41154956603037</v>
       </c>
       <c r="L13">
-        <v>22.88004402357254</v>
+        <v>22.88004402357262</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.63900215293049</v>
+        <v>30.63900215293066</v>
       </c>
       <c r="C14">
-        <v>36.13253394224763</v>
+        <v>36.13253394224789</v>
       </c>
       <c r="D14">
-        <v>9.852403008465986</v>
+        <v>9.852403008466029</v>
       </c>
       <c r="E14">
-        <v>5.693290450697189</v>
+        <v>5.693290450697289</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.02340614762157</v>
+        <v>84.02340614762268</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.24689744461661</v>
+        <v>14.24689744461674</v>
       </c>
       <c r="L14">
-        <v>22.60756798220872</v>
+        <v>22.60756798220885</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.39460311150805</v>
+        <v>30.39460311150787</v>
       </c>
       <c r="C15">
-        <v>35.8658271149454</v>
+        <v>35.86582711494547</v>
       </c>
       <c r="D15">
-        <v>9.781127713131262</v>
+        <v>9.781127713131271</v>
       </c>
       <c r="E15">
-        <v>5.67749553063196</v>
+        <v>5.677495530631928</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.47548181350693</v>
+        <v>83.47548181350685</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.14618127252486</v>
+        <v>14.14618127252481</v>
       </c>
       <c r="L15">
-        <v>22.44113078129683</v>
+        <v>22.44113078129673</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.00712376468628</v>
+        <v>29.00712376468641</v>
       </c>
       <c r="C16">
-        <v>34.34555833566313</v>
+        <v>34.34555833566292</v>
       </c>
       <c r="D16">
-        <v>9.374364325573529</v>
+        <v>9.37436432557346</v>
       </c>
       <c r="E16">
-        <v>5.589782561765786</v>
+        <v>5.589782561765876</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.3508336266765</v>
+        <v>80.35083362667612</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59519138879649</v>
+        <v>13.59519138879651</v>
       </c>
       <c r="L16">
-        <v>21.49252698376539</v>
+        <v>21.49252698376542</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.16453237059524</v>
+        <v>28.16453237059518</v>
       </c>
       <c r="C17">
-        <v>33.41728928560875</v>
+        <v>33.41728928560862</v>
       </c>
       <c r="D17">
-        <v>9.125594917833595</v>
+        <v>9.125594917833507</v>
       </c>
       <c r="E17">
-        <v>5.538152656523302</v>
+        <v>5.538152656523248</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.44249042569838</v>
+        <v>78.44249042569858</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.29578925363558</v>
+        <v>13.29578925363561</v>
       </c>
       <c r="L17">
-        <v>20.91338853727587</v>
+        <v>20.91338853727583</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.68197672075843</v>
+        <v>27.68197672075821</v>
       </c>
       <c r="C18">
-        <v>32.88397561565784</v>
+        <v>32.8839756156578</v>
       </c>
       <c r="D18">
-        <v>8.982533351140983</v>
+        <v>8.982533351140971</v>
       </c>
       <c r="E18">
-        <v>5.509146732873625</v>
+        <v>5.509146732873607</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.34622409601531</v>
+        <v>77.34622409601513</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.12436456068014</v>
+        <v>13.12436456068012</v>
       </c>
       <c r="L18">
-        <v>20.58067556206484</v>
+        <v>20.58067556206476</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.51885907707897</v>
+        <v>27.51885907707905</v>
       </c>
       <c r="C19">
-        <v>32.70342415854176</v>
+        <v>32.70342415854164</v>
       </c>
       <c r="D19">
-        <v>8.934077616281733</v>
+        <v>8.934077616281638</v>
       </c>
       <c r="E19">
-        <v>5.499435186369145</v>
+        <v>5.499435186369093</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.97513352442351</v>
+        <v>76.9751335244233</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.06643555873167</v>
+        <v>13.06643555873169</v>
       </c>
       <c r="L19">
         <v>20.46803851036676</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.25399027258362</v>
+        <v>28.25399027258316</v>
       </c>
       <c r="C20">
-        <v>33.51602219009332</v>
+        <v>33.51602219009296</v>
       </c>
       <c r="D20">
-        <v>9.152069051425501</v>
+        <v>9.152069051425444</v>
       </c>
       <c r="E20">
-        <v>5.543575054277878</v>
+        <v>5.543575054277722</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.64545958648877</v>
+        <v>78.64545958648709</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.32757458107699</v>
+        <v>13.32757458107693</v>
       </c>
       <c r="L20">
-        <v>20.97498512011457</v>
+        <v>20.97498512011438</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75647809967777</v>
+        <v>30.75647809967759</v>
       </c>
       <c r="C21">
-        <v>36.26061624980744</v>
+        <v>36.26061624980746</v>
       </c>
       <c r="D21">
-        <v>9.886622920475844</v>
+        <v>9.886622920475837</v>
       </c>
       <c r="E21">
-        <v>5.700919201953577</v>
+        <v>5.70091920195348</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.28650214829251</v>
+        <v>84.28650214829258</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.29522850378221</v>
+        <v>14.29522850378223</v>
       </c>
       <c r="L21">
-        <v>22.68749953613339</v>
+        <v>22.68749953613336</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.43660252806709</v>
+        <v>32.43660252806703</v>
       </c>
       <c r="C22">
-        <v>38.08408327471709</v>
+        <v>38.08408327471725</v>
       </c>
       <c r="D22">
-        <v>10.37315345836511</v>
+        <v>10.37315345836517</v>
       </c>
       <c r="E22">
-        <v>5.812612592168656</v>
+        <v>5.812612592168636</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.02860179599963</v>
+        <v>88.02860179599949</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.98065938023816</v>
+        <v>14.98065938023821</v>
       </c>
       <c r="L22">
-        <v>23.8256410703072</v>
+        <v>23.82564107030721</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.53423970735664</v>
+        <v>31.53423970735696</v>
       </c>
       <c r="C23">
-        <v>37.10668181350142</v>
+        <v>37.10668181350187</v>
       </c>
       <c r="D23">
-        <v>10.11251837103573</v>
+        <v>10.11251837103583</v>
       </c>
       <c r="E23">
-        <v>5.752023616380767</v>
+        <v>5.752023616380832</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.02369701889249</v>
+        <v>86.0236970188941</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.61388170893639</v>
+        <v>14.61388170893656</v>
       </c>
       <c r="L23">
-        <v>23.21553925843493</v>
+        <v>23.21553925843514</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.21354080819605</v>
+        <v>28.21354080819616</v>
       </c>
       <c r="C24">
-        <v>33.47138415518683</v>
+        <v>33.47138415518702</v>
       </c>
       <c r="D24">
-        <v>9.140100282715915</v>
+        <v>9.140100282716009</v>
       </c>
       <c r="E24">
-        <v>5.541121506005148</v>
+        <v>5.541121506005093</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.55369494679086</v>
+        <v>78.55369494679174</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.31320229969843</v>
+        <v>13.31320229969847</v>
       </c>
       <c r="L24">
-        <v>20.94713670180356</v>
+        <v>20.94713670180365</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.70549601215828</v>
+        <v>24.7054960121582</v>
       </c>
       <c r="C25">
-        <v>29.56783168188371</v>
+        <v>29.56783168188382</v>
       </c>
       <c r="D25">
-        <v>8.090695350998361</v>
+        <v>8.090695350998372</v>
       </c>
       <c r="E25">
-        <v>5.339483930115585</v>
+        <v>5.339483930115571</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.53942264832268</v>
+        <v>70.5394226483225</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.07075954343599</v>
+        <v>12.07075954343603</v>
       </c>
       <c r="L25">
-        <v>18.51181046028719</v>
+        <v>18.51181046028721</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09820506467886</v>
+        <v>22.09820506467891</v>
       </c>
       <c r="C2">
-        <v>26.62670068903212</v>
+        <v>26.62670068903228</v>
       </c>
       <c r="D2">
-        <v>7.296235693934245</v>
+        <v>7.296235693934381</v>
       </c>
       <c r="E2">
-        <v>5.2044112754762</v>
+        <v>5.204411275476216</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.53413268408659</v>
+        <v>64.53413268408694</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>11.16030701683648</v>
       </c>
       <c r="L2">
-        <v>16.67590017831385</v>
+        <v>16.67590017831388</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.28715977350356</v>
+        <v>20.28715977350368</v>
       </c>
       <c r="C3">
-        <v>24.56465729117597</v>
+        <v>24.56465729117599</v>
       </c>
       <c r="D3">
-        <v>6.737034918973769</v>
+        <v>6.737034918973735</v>
       </c>
       <c r="E3">
-        <v>5.118400741393525</v>
+        <v>5.118400741393519</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.35577750370701</v>
+        <v>60.355777503707</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.54054092965341</v>
+        <v>10.54054092965336</v>
       </c>
       <c r="L3">
-        <v>15.38727103170009</v>
+        <v>15.38727103170016</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.14648751518805</v>
+        <v>19.14648751518817</v>
       </c>
       <c r="C4">
-        <v>23.25810708746567</v>
+        <v>23.25810708746564</v>
       </c>
       <c r="D4">
-        <v>6.381636260074258</v>
+        <v>6.381636260074424</v>
       </c>
       <c r="E4">
-        <v>5.067645550775918</v>
+        <v>5.067645550775977</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.72757121594154</v>
+        <v>57.72757121594181</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.15777534228772</v>
+        <v>10.15777534228775</v>
       </c>
       <c r="L4">
-        <v>14.56973043791205</v>
+        <v>14.56973043791206</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67360788865095</v>
+        <v>18.67360788865073</v>
       </c>
       <c r="C5">
-        <v>22.71472764378387</v>
+        <v>22.71472764378381</v>
       </c>
       <c r="D5">
-        <v>6.233555718072483</v>
+        <v>6.23355571807238</v>
       </c>
       <c r="E5">
-        <v>5.047398237405011</v>
+        <v>5.047398237404909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.63987749372641</v>
+        <v>56.63987749372642</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.00118629445703</v>
+        <v>10.00118629445705</v>
       </c>
       <c r="L5">
-        <v>14.2294098239123</v>
+        <v>14.22940982391223</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59457914421033</v>
+        <v>18.59457914421024</v>
       </c>
       <c r="C6">
-        <v>22.62381855981247</v>
+        <v>22.62381855981229</v>
       </c>
       <c r="D6">
-        <v>6.211468459546684</v>
+        <v>6.211468459546722</v>
       </c>
       <c r="E6">
-        <v>5.044060398639688</v>
+        <v>5.044060398639619</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.45823959101327</v>
+        <v>56.45823959101318</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.975147829163525</v>
+        <v>9.975147829163472</v>
       </c>
       <c r="L6">
-        <v>14.17245247784701</v>
+        <v>14.17245247784694</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.14014366485258</v>
+        <v>19.14014366485252</v>
       </c>
       <c r="C7">
-        <v>23.2508241405498</v>
+        <v>23.25082414054965</v>
       </c>
       <c r="D7">
-        <v>6.379652636209024</v>
+        <v>6.379652636208951</v>
       </c>
       <c r="E7">
-        <v>5.067370820840814</v>
+        <v>5.067370820840567</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.71297067530398</v>
+        <v>57.71297067530386</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.15566601070974</v>
+        <v>10.15566601070967</v>
       </c>
       <c r="L7">
-        <v>14.56517043831728</v>
+        <v>14.56517043831727</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.47915605578437</v>
+        <v>21.47915605578427</v>
       </c>
       <c r="C8">
         <v>25.92358516856444</v>
       </c>
       <c r="D8">
-        <v>7.105778231373505</v>
+        <v>7.105778231373456</v>
       </c>
       <c r="E8">
-        <v>5.174274654684794</v>
+        <v>5.174274654684804</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.10577350414631</v>
+        <v>63.10577350414621</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.94702273950429</v>
+        <v>10.94702273950433</v>
       </c>
       <c r="L8">
-        <v>16.23668562867049</v>
+        <v>16.23668562867046</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.88627624015691</v>
+        <v>25.88627624015684</v>
       </c>
       <c r="C9">
-        <v>30.88876172626107</v>
+        <v>30.88876172626114</v>
       </c>
       <c r="D9">
-        <v>8.446421153713048</v>
+        <v>8.446421153712981</v>
       </c>
       <c r="E9">
-        <v>5.404861688564696</v>
+        <v>5.40486168856475</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.24789663681165</v>
+        <v>73.247896636812</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.48759530578946</v>
+        <v>12.48759530578947</v>
       </c>
       <c r="L9">
-        <v>19.33596080608523</v>
+        <v>19.3359608060852</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.10362471214997</v>
+        <v>29.10362471214999</v>
       </c>
       <c r="C10">
-        <v>34.45163052145163</v>
+        <v>34.45163052145168</v>
       </c>
       <c r="D10">
-        <v>9.402771570980441</v>
+        <v>9.402771570980491</v>
       </c>
       <c r="E10">
-        <v>5.595774962289179</v>
+        <v>5.595774962289154</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.56889443112361</v>
+        <v>80.5688944311237</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.6294796976118</v>
+        <v>13.62947969761184</v>
       </c>
       <c r="L10">
         <v>21.55870748117253</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.59220537650976</v>
+        <v>30.59220537650985</v>
       </c>
       <c r="C11">
-        <v>36.08149103526693</v>
+        <v>36.08149103526715</v>
       </c>
       <c r="D11">
-        <v>9.838764167898356</v>
+        <v>9.838764167898308</v>
       </c>
       <c r="E11">
-        <v>5.690258131516297</v>
+        <v>5.690258131516318</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.9185511160379</v>
+        <v>83.918551116038</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.22763010401744</v>
+        <v>14.22763010401748</v>
       </c>
       <c r="L11">
-        <v>22.57571437475861</v>
+        <v>22.57571437475869</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16307655564833</v>
+        <v>31.16307655564816</v>
       </c>
       <c r="C12">
-        <v>36.70333909321458</v>
+        <v>36.7033390932144</v>
       </c>
       <c r="D12">
-        <v>10.00486018337178</v>
+        <v>10.00486018337175</v>
       </c>
       <c r="E12">
-        <v>5.727506209566728</v>
+        <v>5.727506209566718</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.19569658632933</v>
+        <v>85.19569658632923</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.46210285286644</v>
+        <v>14.46210285286639</v>
       </c>
       <c r="L12">
-        <v>22.96379918960757</v>
+        <v>22.96379918960744</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.03973838314067</v>
+        <v>31.0397383831406</v>
       </c>
       <c r="C13">
-        <v>36.56913907551802</v>
+        <v>36.56913907551785</v>
       </c>
       <c r="D13">
-        <v>9.969027088442903</v>
+        <v>9.969027088442981</v>
       </c>
       <c r="E13">
-        <v>5.719411291430239</v>
+        <v>5.719411291430137</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.92013418327666</v>
+        <v>84.92013418327625</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.41154956603037</v>
+        <v>14.41154956603034</v>
       </c>
       <c r="L13">
-        <v>22.88004402357262</v>
+        <v>22.88004402357254</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.63900215293066</v>
+        <v>30.63900215293049</v>
       </c>
       <c r="C14">
-        <v>36.13253394224789</v>
+        <v>36.13253394224763</v>
       </c>
       <c r="D14">
-        <v>9.852403008466029</v>
+        <v>9.852403008465986</v>
       </c>
       <c r="E14">
-        <v>5.693290450697289</v>
+        <v>5.693290450697189</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.02340614762268</v>
+        <v>84.02340614762157</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.24689744461674</v>
+        <v>14.24689744461661</v>
       </c>
       <c r="L14">
-        <v>22.60756798220885</v>
+        <v>22.60756798220872</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.39460311150787</v>
+        <v>30.39460311150805</v>
       </c>
       <c r="C15">
-        <v>35.86582711494547</v>
+        <v>35.8658271149454</v>
       </c>
       <c r="D15">
-        <v>9.781127713131271</v>
+        <v>9.781127713131262</v>
       </c>
       <c r="E15">
-        <v>5.677495530631928</v>
+        <v>5.67749553063196</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.47548181350685</v>
+        <v>83.47548181350693</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.14618127252481</v>
+        <v>14.14618127252486</v>
       </c>
       <c r="L15">
-        <v>22.44113078129673</v>
+        <v>22.44113078129683</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.00712376468641</v>
+        <v>29.00712376468628</v>
       </c>
       <c r="C16">
-        <v>34.34555833566292</v>
+        <v>34.34555833566313</v>
       </c>
       <c r="D16">
-        <v>9.37436432557346</v>
+        <v>9.374364325573529</v>
       </c>
       <c r="E16">
-        <v>5.589782561765876</v>
+        <v>5.589782561765786</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.35083362667612</v>
+        <v>80.3508336266765</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59519138879651</v>
+        <v>13.59519138879649</v>
       </c>
       <c r="L16">
-        <v>21.49252698376542</v>
+        <v>21.49252698376539</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.16453237059518</v>
+        <v>28.16453237059524</v>
       </c>
       <c r="C17">
-        <v>33.41728928560862</v>
+        <v>33.41728928560875</v>
       </c>
       <c r="D17">
-        <v>9.125594917833507</v>
+        <v>9.125594917833595</v>
       </c>
       <c r="E17">
-        <v>5.538152656523248</v>
+        <v>5.538152656523302</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.44249042569858</v>
+        <v>78.44249042569838</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.29578925363561</v>
+        <v>13.29578925363558</v>
       </c>
       <c r="L17">
-        <v>20.91338853727583</v>
+        <v>20.91338853727587</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.68197672075821</v>
+        <v>27.68197672075843</v>
       </c>
       <c r="C18">
-        <v>32.8839756156578</v>
+        <v>32.88397561565784</v>
       </c>
       <c r="D18">
-        <v>8.982533351140971</v>
+        <v>8.982533351140983</v>
       </c>
       <c r="E18">
-        <v>5.509146732873607</v>
+        <v>5.509146732873625</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.34622409601513</v>
+        <v>77.34622409601531</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.12436456068012</v>
+        <v>13.12436456068014</v>
       </c>
       <c r="L18">
-        <v>20.58067556206476</v>
+        <v>20.58067556206484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.51885907707905</v>
+        <v>27.51885907707897</v>
       </c>
       <c r="C19">
-        <v>32.70342415854164</v>
+        <v>32.70342415854176</v>
       </c>
       <c r="D19">
-        <v>8.934077616281638</v>
+        <v>8.934077616281733</v>
       </c>
       <c r="E19">
-        <v>5.499435186369093</v>
+        <v>5.499435186369145</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.9751335244233</v>
+        <v>76.97513352442351</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.06643555873169</v>
+        <v>13.06643555873167</v>
       </c>
       <c r="L19">
         <v>20.46803851036676</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.25399027258316</v>
+        <v>28.25399027258362</v>
       </c>
       <c r="C20">
-        <v>33.51602219009296</v>
+        <v>33.51602219009332</v>
       </c>
       <c r="D20">
-        <v>9.152069051425444</v>
+        <v>9.152069051425501</v>
       </c>
       <c r="E20">
-        <v>5.543575054277722</v>
+        <v>5.543575054277878</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.64545958648709</v>
+        <v>78.64545958648877</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.32757458107693</v>
+        <v>13.32757458107699</v>
       </c>
       <c r="L20">
-        <v>20.97498512011438</v>
+        <v>20.97498512011457</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75647809967759</v>
+        <v>30.75647809967777</v>
       </c>
       <c r="C21">
-        <v>36.26061624980746</v>
+        <v>36.26061624980744</v>
       </c>
       <c r="D21">
-        <v>9.886622920475837</v>
+        <v>9.886622920475844</v>
       </c>
       <c r="E21">
-        <v>5.70091920195348</v>
+        <v>5.700919201953577</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.28650214829258</v>
+        <v>84.28650214829251</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.29522850378223</v>
+        <v>14.29522850378221</v>
       </c>
       <c r="L21">
-        <v>22.68749953613336</v>
+        <v>22.68749953613339</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.43660252806703</v>
+        <v>32.43660252806709</v>
       </c>
       <c r="C22">
-        <v>38.08408327471725</v>
+        <v>38.08408327471709</v>
       </c>
       <c r="D22">
-        <v>10.37315345836517</v>
+        <v>10.37315345836511</v>
       </c>
       <c r="E22">
-        <v>5.812612592168636</v>
+        <v>5.812612592168656</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.02860179599949</v>
+        <v>88.02860179599963</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.98065938023821</v>
+        <v>14.98065938023816</v>
       </c>
       <c r="L22">
-        <v>23.82564107030721</v>
+        <v>23.8256410703072</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.53423970735696</v>
+        <v>31.53423970735664</v>
       </c>
       <c r="C23">
-        <v>37.10668181350187</v>
+        <v>37.10668181350142</v>
       </c>
       <c r="D23">
-        <v>10.11251837103583</v>
+        <v>10.11251837103573</v>
       </c>
       <c r="E23">
-        <v>5.752023616380832</v>
+        <v>5.752023616380767</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.0236970188941</v>
+        <v>86.02369701889249</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.61388170893656</v>
+        <v>14.61388170893639</v>
       </c>
       <c r="L23">
-        <v>23.21553925843514</v>
+        <v>23.21553925843493</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.21354080819616</v>
+        <v>28.21354080819605</v>
       </c>
       <c r="C24">
-        <v>33.47138415518702</v>
+        <v>33.47138415518683</v>
       </c>
       <c r="D24">
-        <v>9.140100282716009</v>
+        <v>9.140100282715915</v>
       </c>
       <c r="E24">
-        <v>5.541121506005093</v>
+        <v>5.541121506005148</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.55369494679174</v>
+        <v>78.55369494679086</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.31320229969847</v>
+        <v>13.31320229969843</v>
       </c>
       <c r="L24">
-        <v>20.94713670180365</v>
+        <v>20.94713670180356</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.7054960121582</v>
+        <v>24.70549601215828</v>
       </c>
       <c r="C25">
-        <v>29.56783168188382</v>
+        <v>29.56783168188371</v>
       </c>
       <c r="D25">
-        <v>8.090695350998372</v>
+        <v>8.090695350998361</v>
       </c>
       <c r="E25">
-        <v>5.339483930115571</v>
+        <v>5.339483930115585</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.5394226483225</v>
+        <v>70.53942264832268</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.07075954343603</v>
+        <v>12.07075954343599</v>
       </c>
       <c r="L25">
-        <v>18.51181046028721</v>
+        <v>18.51181046028719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09820506467891</v>
+        <v>21.91429998860922</v>
       </c>
       <c r="C2">
-        <v>26.62670068903228</v>
+        <v>26.48252819409618</v>
       </c>
       <c r="D2">
-        <v>7.296235693934381</v>
+        <v>7.27173432393438</v>
       </c>
       <c r="E2">
-        <v>5.204411275476216</v>
+        <v>5.042887019871245</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.045798846866965</v>
       </c>
       <c r="H2">
-        <v>64.53413268408694</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.57819792406202</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.16030701683648</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16.67590017831388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11.14913562134175</v>
+      </c>
+      <c r="M2">
+        <v>16.56857581981182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.28715977350368</v>
+        <v>20.11981932116768</v>
       </c>
       <c r="C3">
-        <v>24.56465729117599</v>
+        <v>24.43968412141117</v>
       </c>
       <c r="D3">
-        <v>6.737034918973735</v>
+        <v>6.714959569925277</v>
       </c>
       <c r="E3">
-        <v>5.118400741393519</v>
+        <v>4.954460653879027</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.066867118493152</v>
       </c>
       <c r="H3">
-        <v>60.355777503707</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.43370867161507</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.54054092965336</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.38727103170016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>10.53385631939173</v>
+      </c>
+      <c r="M3">
+        <v>15.28583456027491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.14648751518817</v>
+        <v>18.9899922407304</v>
       </c>
       <c r="C4">
-        <v>23.25810708746564</v>
+        <v>23.14576768940504</v>
       </c>
       <c r="D4">
-        <v>6.381636260074424</v>
+        <v>6.361021344150604</v>
       </c>
       <c r="E4">
-        <v>5.067645550775977</v>
+        <v>4.902146464155868</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.079793452832284</v>
       </c>
       <c r="H4">
-        <v>57.72757121594181</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.82747155322942</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.15777534228775</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>14.56973043791206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>10.1539213207732</v>
+      </c>
+      <c r="M4">
+        <v>14.47185042638258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67360788865073</v>
+        <v>18.52173739351027</v>
       </c>
       <c r="C5">
-        <v>22.71472764378381</v>
+        <v>22.60778754491621</v>
       </c>
       <c r="D5">
-        <v>6.23355571807238</v>
+        <v>6.217982237283507</v>
       </c>
       <c r="E5">
-        <v>5.047398237404909</v>
+        <v>4.881246870733053</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.08507409559431</v>
       </c>
       <c r="H5">
-        <v>56.63987749372642</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.749072929864</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.00118629445705</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.22940982391223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.998509121171994</v>
+      </c>
+      <c r="M5">
+        <v>14.13297408429508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59457914421024</v>
+        <v>18.4434900518048</v>
       </c>
       <c r="C6">
-        <v>22.62381855981229</v>
+        <v>22.51779131681797</v>
       </c>
       <c r="D6">
-        <v>6.211468459546722</v>
+        <v>6.197273212191537</v>
       </c>
       <c r="E6">
-        <v>5.044060398639619</v>
+        <v>4.877799749817373</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.085952138697816</v>
       </c>
       <c r="H6">
-        <v>56.45823959101318</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.56900042866808</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.975147829163472</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.17245247784694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.972667582121792</v>
+      </c>
+      <c r="M6">
+        <v>14.07625650152269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.14014366485252</v>
+        <v>18.98370988282872</v>
       </c>
       <c r="C7">
-        <v>23.25082414054965</v>
+        <v>23.13855649163577</v>
       </c>
       <c r="D7">
-        <v>6.379652636208951</v>
+        <v>6.359045710932381</v>
       </c>
       <c r="E7">
-        <v>5.067370820840567</v>
+        <v>4.901863003608351</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.079864597831294</v>
       </c>
       <c r="H7">
-        <v>57.71297067530386</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.81299492468518</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.15566601070967</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>14.56517043831727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10.1518277612709</v>
+      </c>
+      <c r="M7">
+        <v>14.46730991368302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.47915605578427</v>
+        <v>21.30084393792436</v>
       </c>
       <c r="C8">
-        <v>25.92358516856444</v>
+        <v>25.785880082664</v>
       </c>
       <c r="D8">
-        <v>7.105778231373456</v>
+        <v>7.082122152024632</v>
       </c>
       <c r="E8">
-        <v>5.174274654684804</v>
+        <v>5.011934476995535</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.053075334521826</v>
       </c>
       <c r="H8">
-        <v>63.10577350414621</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.16130188227823</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.94702273950433</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.23668562867046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10.93738574008803</v>
+      </c>
+      <c r="M8">
+        <v>16.13141020734103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.88627624015684</v>
+        <v>25.66873630206409</v>
       </c>
       <c r="C9">
-        <v>30.88876172626114</v>
+        <v>30.70611106674013</v>
       </c>
       <c r="D9">
-        <v>8.446421153712981</v>
+        <v>8.416305720996752</v>
       </c>
       <c r="E9">
-        <v>5.40486168856475</v>
+        <v>5.248015230148466</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.999600394433669</v>
       </c>
       <c r="H9">
-        <v>73.247896636812</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>73.22297538937823</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.48759530578947</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.3359608060852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12.46690106460646</v>
+      </c>
+      <c r="M9">
+        <v>19.21508023240443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.10362471214999</v>
+        <v>28.85669574850063</v>
       </c>
       <c r="C10">
-        <v>34.45163052145168</v>
+        <v>34.23607294086843</v>
       </c>
       <c r="D10">
-        <v>9.402771570980491</v>
+        <v>9.367104044849635</v>
       </c>
       <c r="E10">
-        <v>5.595774962289154</v>
+        <v>5.442296479783644</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.958162571179004</v>
       </c>
       <c r="H10">
-        <v>80.5688944311237</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80.48441164101334</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.62947969761184</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.55870748117253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.60024718864895</v>
+      </c>
+      <c r="M10">
+        <v>21.42447224041494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.59220537650985</v>
+        <v>30.33085411050247</v>
       </c>
       <c r="C11">
-        <v>36.08149103526715</v>
+        <v>35.85005704723928</v>
       </c>
       <c r="D11">
-        <v>9.838764167898308</v>
+        <v>9.800197541016594</v>
       </c>
       <c r="E11">
-        <v>5.690258131516318</v>
+        <v>5.538080353993077</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.938331296094992</v>
       </c>
       <c r="H11">
-        <v>83.918551116038</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>83.80527536959714</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.22763010401748</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.57571437475869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.17767110896434</v>
+      </c>
+      <c r="M11">
+        <v>22.43451319244705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16307655564816</v>
+        <v>30.89598902031277</v>
       </c>
       <c r="C12">
-        <v>36.7033390932144</v>
+        <v>36.46564096806168</v>
       </c>
       <c r="D12">
-        <v>10.00486018337175</v>
+        <v>9.965114157527582</v>
       </c>
       <c r="E12">
-        <v>5.727506209566718</v>
+        <v>5.575775519320742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.930618397296966</v>
       </c>
       <c r="H12">
-        <v>85.19569658632923</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>85.07106000577681</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.46210285286639</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.96379918960744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.41068801033359</v>
+      </c>
+      <c r="M12">
+        <v>22.81976433317218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0397383831406</v>
+        <v>30.77390111220397</v>
       </c>
       <c r="C13">
-        <v>36.56913907551785</v>
+        <v>36.3328038338021</v>
       </c>
       <c r="D13">
-        <v>9.969027088442981</v>
+        <v>9.92953929899951</v>
       </c>
       <c r="E13">
-        <v>5.719411291430137</v>
+        <v>5.567586600900217</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.932289783598518</v>
       </c>
       <c r="H13">
-        <v>84.92013418327625</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>84.79796924847585</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.41154956603034</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.88004402357254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.36045332866506</v>
+      </c>
+      <c r="M13">
+        <v>22.73662962778604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.63900215293049</v>
+        <v>30.37718539250386</v>
       </c>
       <c r="C14">
-        <v>36.13253394224763</v>
+        <v>35.90059055693814</v>
       </c>
       <c r="D14">
-        <v>9.852403008465986</v>
+        <v>9.813741198182832</v>
       </c>
       <c r="E14">
-        <v>5.693290450697189</v>
+        <v>5.541150459591199</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.937701261104406</v>
       </c>
       <c r="H14">
-        <v>84.02340614762157</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>83.90920650104758</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.24689744461661</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.60756798220872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.19682088449397</v>
+      </c>
+      <c r="M14">
+        <v>22.4661381112225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.39460311150805</v>
+        <v>30.13520856334252</v>
       </c>
       <c r="C15">
-        <v>35.8658271149454</v>
+        <v>35.63653645880849</v>
       </c>
       <c r="D15">
-        <v>9.781127713131262</v>
+        <v>9.742960146027356</v>
       </c>
       <c r="E15">
-        <v>5.67749553063196</v>
+        <v>5.525156017889518</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.940987256839087</v>
       </c>
       <c r="H15">
-        <v>83.47548181350693</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>83.36609348816741</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.14618127252486</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.44113078129683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.09671531210753</v>
+      </c>
+      <c r="M15">
+        <v>22.30088838504646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.00712376468628</v>
+        <v>28.76110683260925</v>
       </c>
       <c r="C16">
-        <v>34.34555833566313</v>
+        <v>34.13101085835121</v>
       </c>
       <c r="D16">
-        <v>9.374364325573529</v>
+        <v>9.338876664599393</v>
       </c>
       <c r="E16">
-        <v>5.589782561765786</v>
+        <v>5.436213510696067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.959434014642489</v>
       </c>
       <c r="H16">
-        <v>80.3508336266765</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>80.26818224200146</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.59519138879649</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.49252698376539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>13.56622491411288</v>
+      </c>
+      <c r="M16">
+        <v>21.35872399902447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.16453237059524</v>
+        <v>27.92638074754312</v>
       </c>
       <c r="C17">
-        <v>33.41728928560875</v>
+        <v>33.21148290134673</v>
       </c>
       <c r="D17">
-        <v>9.125594917833595</v>
+        <v>9.09163970769956</v>
       </c>
       <c r="E17">
-        <v>5.538152656523302</v>
+        <v>5.383763117779616</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.970461307366861</v>
       </c>
       <c r="H17">
-        <v>78.44249042569838</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>78.37568221599255</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.29578925363558</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.91338853727587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>13.26911558394791</v>
+      </c>
+      <c r="M17">
+        <v>20.78326907171703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.68197672075843</v>
+        <v>27.44825957674967</v>
       </c>
       <c r="C18">
-        <v>32.88397561565784</v>
+        <v>32.68312100382978</v>
       </c>
       <c r="D18">
-        <v>8.982533351140983</v>
+        <v>8.9494266484769</v>
       </c>
       <c r="E18">
-        <v>5.509146732873625</v>
+        <v>5.354264465345392</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.976716276479548</v>
       </c>
       <c r="H18">
-        <v>77.34622409601531</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>77.28838538659785</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.12436456068014</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.58067556206484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>13.09898178663108</v>
+      </c>
+      <c r="M18">
+        <v>20.45259633462893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.51885907707897</v>
+        <v>27.28663092922694</v>
       </c>
       <c r="C19">
-        <v>32.70342415854176</v>
+        <v>32.50423599921829</v>
       </c>
       <c r="D19">
-        <v>8.934077616281733</v>
+        <v>8.90125319617608</v>
       </c>
       <c r="E19">
-        <v>5.499435186369145</v>
+        <v>5.344382796723062</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.978820615362883</v>
       </c>
       <c r="H19">
-        <v>76.97513352442351</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.92031221675448</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.06643555873167</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.46803851036676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>13.04148583150353</v>
+      </c>
+      <c r="M19">
+        <v>20.34063817055872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.25399027258362</v>
+        <v>28.01501135161542</v>
       </c>
       <c r="C20">
-        <v>33.51602219009332</v>
+        <v>33.3092938693466</v>
       </c>
       <c r="D20">
-        <v>9.152069051425501</v>
+        <v>9.117954276395054</v>
       </c>
       <c r="E20">
-        <v>5.543575054277878</v>
+        <v>5.389275080855061</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.969296887096256</v>
       </c>
       <c r="H20">
-        <v>78.64545958648877</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>78.57698090063487</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.32757458107699</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.97498512011457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>13.30065991003581</v>
+      </c>
+      <c r="M20">
+        <v>20.84448204316275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75647809967777</v>
+        <v>30.49348916272487</v>
       </c>
       <c r="C21">
-        <v>36.26061624980744</v>
+        <v>36.02739097092608</v>
       </c>
       <c r="D21">
-        <v>9.886622920475844</v>
+        <v>9.847721008537908</v>
       </c>
       <c r="E21">
-        <v>5.700919201953577</v>
+        <v>5.548873185766904</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.936117902579484</v>
       </c>
       <c r="H21">
-        <v>84.28650214829251</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>84.1699775380672</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.29522850378221</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.68749953613339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.24485543992841</v>
+      </c>
+      <c r="M21">
+        <v>22.54549279333168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.43660252806709</v>
+        <v>32.1562097521233</v>
       </c>
       <c r="C22">
-        <v>38.08408327471709</v>
+        <v>37.83196440539127</v>
       </c>
       <c r="D22">
-        <v>10.37315345836511</v>
+        <v>10.33062191729086</v>
       </c>
       <c r="E22">
-        <v>5.812612592168656</v>
+        <v>5.661763324073755</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.913201404899791</v>
       </c>
       <c r="H22">
-        <v>88.02860179599963</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>87.87782087495593</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.98065938023816</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.8256410703072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.92581325014778</v>
+      </c>
+      <c r="M22">
+        <v>23.67491250275889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.53423970735664</v>
+        <v>31.26335116816339</v>
       </c>
       <c r="C23">
-        <v>37.10668181350142</v>
+        <v>36.86484859074243</v>
       </c>
       <c r="D23">
-        <v>10.11251837103573</v>
+        <v>10.07198340059128</v>
       </c>
       <c r="E23">
-        <v>5.752023616380767</v>
+        <v>5.600566891092596</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.925572160322284</v>
       </c>
       <c r="H23">
-        <v>86.02369701889249</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>85.89156189789715</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.61388170893639</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>23.21553925843493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.56149403072585</v>
+      </c>
+      <c r="M23">
+        <v>23.06960874805749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.21354080819605</v>
+        <v>27.97493617245122</v>
       </c>
       <c r="C24">
-        <v>33.47138415518683</v>
+        <v>33.26507286289098</v>
       </c>
       <c r="D24">
-        <v>9.140100282715915</v>
+        <v>9.106057746386062</v>
       </c>
       <c r="E24">
-        <v>5.541121506005148</v>
+        <v>5.386781104754385</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.969823581177629</v>
       </c>
       <c r="H24">
-        <v>78.55369494679086</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>78.48597190150916</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.31320229969843</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.94713670180356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>13.2863966681097</v>
+      </c>
+      <c r="M24">
+        <v>20.8168072922921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.70549601215828</v>
+        <v>24.49842753641626</v>
       </c>
       <c r="C25">
-        <v>29.56783168188371</v>
+        <v>29.39707544968132</v>
       </c>
       <c r="D25">
-        <v>8.090695350998361</v>
+        <v>8.062420745100878</v>
       </c>
       <c r="E25">
-        <v>5.339483930115585</v>
+        <v>5.181247434292168</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.014306346941252</v>
       </c>
       <c r="H25">
-        <v>70.53942264832268</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.53593667621429</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.07075954343599</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.51181046028719</v>
+        <v>12.05307225199954</v>
+      </c>
+      <c r="M25">
+        <v>18.39536673631129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.91429998860922</v>
+        <v>26.79820630972052</v>
       </c>
       <c r="C2">
-        <v>26.48252819409618</v>
+        <v>20.04952512268786</v>
       </c>
       <c r="D2">
-        <v>7.27173432393438</v>
+        <v>7.317884541628321</v>
       </c>
       <c r="E2">
-        <v>5.042887019871245</v>
+        <v>30.27735826143175</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.045798846866965</v>
+        <v>2.033391373021095</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.57819792406202</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>23.87962260881264</v>
       </c>
       <c r="L2">
-        <v>11.14913562134175</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.56857581981182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.46854278615367</v>
+      </c>
+      <c r="O2">
+        <v>33.31683783889096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11981932116768</v>
+        <v>24.78999370727751</v>
       </c>
       <c r="C3">
-        <v>24.43968412141117</v>
+        <v>18.53625729258907</v>
       </c>
       <c r="D3">
-        <v>6.714959569925277</v>
+        <v>6.776400832739247</v>
       </c>
       <c r="E3">
-        <v>4.954460653879027</v>
+        <v>27.92296764758981</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.066867118493152</v>
+        <v>2.048772798147112</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.43370867161507</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.0943148631639</v>
       </c>
       <c r="L3">
-        <v>10.53385631939173</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.28583456027491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.57130675402846</v>
+      </c>
+      <c r="O3">
+        <v>31.50229234767792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9899922407304</v>
+        <v>23.50617682768646</v>
       </c>
       <c r="C4">
-        <v>23.14576768940504</v>
+        <v>17.56975298001846</v>
       </c>
       <c r="D4">
-        <v>6.361021344150604</v>
+        <v>6.429683873863399</v>
       </c>
       <c r="E4">
-        <v>4.902146464155868</v>
+        <v>26.42914558687737</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.079793452832284</v>
+        <v>2.058296562693819</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.82747155322942</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.95243865441103</v>
       </c>
       <c r="L4">
-        <v>10.1539213207732</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.47185042638258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.64187706227021</v>
+      </c>
+      <c r="O4">
+        <v>30.38909642237481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52173739351027</v>
+        <v>22.96975921752178</v>
       </c>
       <c r="C5">
-        <v>22.60778754491621</v>
+        <v>17.16606776447013</v>
       </c>
       <c r="D5">
-        <v>6.217982237283507</v>
+        <v>6.284678143801928</v>
       </c>
       <c r="E5">
-        <v>4.881246870733053</v>
+        <v>25.8073478778592</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.08507409559431</v>
+        <v>2.062205427356189</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.749072929864</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.47514843971282</v>
       </c>
       <c r="L5">
-        <v>9.998509121171994</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.13297408429508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.67236210563924</v>
+      </c>
+      <c r="O5">
+        <v>29.93568199880032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.4434900518048</v>
+        <v>22.87987420513265</v>
       </c>
       <c r="C6">
-        <v>22.51779131681797</v>
+        <v>17.09843090456653</v>
       </c>
       <c r="D6">
-        <v>6.197273212191537</v>
+        <v>6.260371981285193</v>
       </c>
       <c r="E6">
-        <v>4.877799749817373</v>
+        <v>25.70328560145469</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.085952138697816</v>
+        <v>2.062856384567083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.56900042866808</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.39515911023449</v>
       </c>
       <c r="L6">
-        <v>9.972667582121792</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.07625650152269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.67752438404639</v>
+      </c>
+      <c r="O6">
+        <v>29.86040881800352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98370988282872</v>
+        <v>23.49899676097821</v>
       </c>
       <c r="C7">
-        <v>23.13855649163577</v>
+        <v>17.56434906530633</v>
       </c>
       <c r="D7">
-        <v>6.359045710932381</v>
+        <v>6.427743487718046</v>
       </c>
       <c r="E7">
-        <v>4.901863003608351</v>
+        <v>26.42081379662476</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.079864597831294</v>
+        <v>2.058349156569649</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.81299492468518</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.94605079421177</v>
       </c>
       <c r="L7">
-        <v>10.1518277612709</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.46730991368302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.64228138707789</v>
+      </c>
+      <c r="O7">
+        <v>30.38298052451495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30084393792436</v>
+        <v>26.11599545530462</v>
       </c>
       <c r="C8">
-        <v>25.785880082664</v>
+        <v>19.53522361603765</v>
       </c>
       <c r="D8">
-        <v>7.082122152024632</v>
+        <v>7.134051725220354</v>
       </c>
       <c r="E8">
-        <v>5.011934476995535</v>
+        <v>29.47497163605884</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.053075334521826</v>
+        <v>2.03868345599624</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.16130188227823</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.27322553245038</v>
       </c>
       <c r="L8">
-        <v>10.93738574008803</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.13141020734103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.50232638684791</v>
+      </c>
+      <c r="O8">
+        <v>32.69092637635194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.66873630206409</v>
+        <v>30.87142956612573</v>
       </c>
       <c r="C9">
-        <v>30.70611106674013</v>
+        <v>23.12676055330341</v>
       </c>
       <c r="D9">
-        <v>8.416305720996752</v>
+        <v>8.413088386736661</v>
       </c>
       <c r="E9">
-        <v>5.248015230148466</v>
+        <v>35.13162199970382</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.999600394433669</v>
+        <v>2.0003292400133</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.22297538937823</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>27.49943853950773</v>
       </c>
       <c r="L9">
-        <v>12.46690106460646</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>19.21508023240443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.29534564261539</v>
+      </c>
+      <c r="O9">
+        <v>37.23482664155788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.85669574850063</v>
+        <v>34.18098551725016</v>
       </c>
       <c r="C10">
-        <v>34.23607294086843</v>
+        <v>25.63798146817097</v>
       </c>
       <c r="D10">
-        <v>9.367104044849635</v>
+        <v>9.299814433894674</v>
       </c>
       <c r="E10">
-        <v>5.442296479783644</v>
+        <v>39.17185928927643</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.958162571179004</v>
+        <v>1.971556083425099</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.48441164101334</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>30.44130211002441</v>
       </c>
       <c r="L10">
-        <v>13.60024718864895</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>21.42447224041494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.19841475500262</v>
+      </c>
+      <c r="O10">
+        <v>40.74729330450434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.33085411050247</v>
+        <v>35.65998269057422</v>
       </c>
       <c r="C11">
-        <v>35.85005704723928</v>
+        <v>26.76425931308385</v>
       </c>
       <c r="D11">
-        <v>9.800197541016594</v>
+        <v>9.695057813473497</v>
       </c>
       <c r="E11">
-        <v>5.538080353993077</v>
+        <v>41.0112287732372</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.938331296094992</v>
+        <v>1.958122255234152</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.80527536959714</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>31.75665478189801</v>
       </c>
       <c r="L11">
-        <v>14.17767110896434</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.43451319244705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.17041420655761</v>
+      </c>
+      <c r="O11">
+        <v>42.48977173948253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.89598902031277</v>
+        <v>36.21770077779038</v>
       </c>
       <c r="C12">
-        <v>36.46564096806168</v>
+        <v>27.18971062590754</v>
       </c>
       <c r="D12">
-        <v>9.965114157527582</v>
+        <v>9.843919137720528</v>
       </c>
       <c r="E12">
-        <v>5.575775519320742</v>
+        <v>41.71096432230436</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.930618397296966</v>
+        <v>1.952961754258338</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.07106000577681</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>32.25281427933532</v>
       </c>
       <c r="L12">
-        <v>14.41068801033359</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.81976433317218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>13.16257527983535</v>
+      </c>
+      <c r="O12">
+        <v>43.15191645632417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.77390111220397</v>
+        <v>36.09766292087148</v>
       </c>
       <c r="C13">
-        <v>36.3328038338021</v>
+        <v>27.09810470637629</v>
       </c>
       <c r="D13">
-        <v>9.92953929899951</v>
+        <v>9.811888436305406</v>
       </c>
       <c r="E13">
-        <v>5.567586600900217</v>
+        <v>41.5600638356194</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.932289783598518</v>
+        <v>1.954076874443742</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.79796924847585</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>32.14601803555443</v>
       </c>
       <c r="L13">
-        <v>14.36045332866506</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.73662962778604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13.16413223190378</v>
+      </c>
+      <c r="O13">
+        <v>43.00917228933927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.37718539250386</v>
+        <v>35.70590370415348</v>
       </c>
       <c r="C14">
-        <v>35.90059055693814</v>
+        <v>26.7992739325792</v>
       </c>
       <c r="D14">
-        <v>9.813741198182832</v>
+        <v>9.707318545472047</v>
       </c>
       <c r="E14">
-        <v>5.541150459591199</v>
+        <v>41.06871186342883</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.937701261104406</v>
+        <v>1.957699328271568</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.90920650104758</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>31.79750386261983</v>
       </c>
       <c r="L14">
-        <v>14.19682088449397</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>22.4661381112225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.16971092250612</v>
+      </c>
+      <c r="O14">
+        <v>42.54418749718559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.13520856334252</v>
+        <v>35.46568452529097</v>
       </c>
       <c r="C15">
-        <v>35.63653645880849</v>
+        <v>26.61613862098979</v>
       </c>
       <c r="D15">
-        <v>9.742960146027356</v>
+        <v>9.643173366405613</v>
       </c>
       <c r="E15">
-        <v>5.525156017889518</v>
+        <v>40.76826594506905</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.940987256839087</v>
+        <v>1.959907811047841</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.36609348816741</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>31.58382310025469</v>
       </c>
       <c r="L15">
-        <v>14.09671531210753</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>22.30088838504646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.17350323641742</v>
+      </c>
+      <c r="O15">
+        <v>42.25973794262504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.76110683260925</v>
+        <v>34.08391289349433</v>
       </c>
       <c r="C16">
-        <v>34.13101085835121</v>
+        <v>25.56415392640072</v>
       </c>
       <c r="D16">
-        <v>9.338876664599393</v>
+        <v>9.273849597801062</v>
       </c>
       <c r="E16">
-        <v>5.436213510696067</v>
+        <v>39.05191876167521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.959434014642489</v>
+        <v>1.972425179749323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.26818224200146</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>30.35498812897516</v>
       </c>
       <c r="L16">
-        <v>13.56622491411288</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>21.35872399902447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.2006045934016</v>
+      </c>
+      <c r="O16">
+        <v>40.6336241131023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.92638074754312</v>
+        <v>33.23037856428837</v>
       </c>
       <c r="C17">
-        <v>33.21148290134673</v>
+        <v>24.91547981401457</v>
       </c>
       <c r="D17">
-        <v>9.09163970769956</v>
+        <v>9.045429256080393</v>
       </c>
       <c r="E17">
-        <v>5.383763117779616</v>
+        <v>38.00124878074882</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.970461307366861</v>
+        <v>1.980000769115855</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.37568221599255</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>29.59613336445522</v>
       </c>
       <c r="L17">
-        <v>13.26911558394791</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20.78326907171703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.2216407099553</v>
+      </c>
+      <c r="O17">
+        <v>39.63795007879511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.44825957674967</v>
+        <v>32.7368441365513</v>
       </c>
       <c r="C18">
-        <v>32.68312100382978</v>
+        <v>24.54077345221602</v>
       </c>
       <c r="D18">
-        <v>8.9494266484769</v>
+        <v>8.913256572810532</v>
       </c>
       <c r="E18">
-        <v>5.354264465345392</v>
+        <v>37.39684718421755</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.976716276479548</v>
+        <v>1.984327324894767</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.28838538659785</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>29.15740510317583</v>
       </c>
       <c r="L18">
-        <v>13.09898178663108</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>20.45259633462893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.23522266545445</v>
+      </c>
+      <c r="O18">
+        <v>39.12108362890211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.28663092922694</v>
+        <v>32.56925563299132</v>
       </c>
       <c r="C19">
-        <v>32.50423599921829</v>
+        <v>24.41359487649237</v>
       </c>
       <c r="D19">
-        <v>8.90125319617608</v>
+        <v>8.868359615533624</v>
       </c>
       <c r="E19">
-        <v>5.344382796723062</v>
+        <v>37.19211444977457</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.978820615362883</v>
+        <v>1.985787575335018</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.92031221675448</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>29.00843585312811</v>
       </c>
       <c r="L19">
-        <v>13.04148583150353</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20.34063817055872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.24006385931811</v>
+      </c>
+      <c r="O19">
+        <v>38.94948138625121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.01501135161542</v>
+        <v>33.32149878121668</v>
       </c>
       <c r="C20">
-        <v>33.3092938693466</v>
+        <v>24.98469034536343</v>
       </c>
       <c r="D20">
-        <v>9.117954276395054</v>
+        <v>9.0698245503416</v>
       </c>
       <c r="E20">
-        <v>5.389275080855061</v>
+        <v>38.11308399955669</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.969296887096256</v>
+        <v>1.979197667611543</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.57698090063487</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>29.6771393664403</v>
       </c>
       <c r="L20">
-        <v>13.30065991003581</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20.84448204316275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.21924501569186</v>
+      </c>
+      <c r="O20">
+        <v>39.74391702716608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.49348916272487</v>
+        <v>35.82102290353774</v>
       </c>
       <c r="C21">
-        <v>36.02739097092608</v>
+        <v>26.88706436117118</v>
       </c>
       <c r="D21">
-        <v>9.847721008537908</v>
+        <v>9.738051883838418</v>
       </c>
       <c r="E21">
-        <v>5.548873185766904</v>
+        <v>41.21291855364075</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.936117902579484</v>
+        <v>1.956637539839554</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.1699775380672</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>31.89991085594356</v>
       </c>
       <c r="L21">
-        <v>14.24485543992841</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.54549279333168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>13.1679931698408</v>
+      </c>
+      <c r="O21">
+        <v>42.68068402465307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.1562097521233</v>
+        <v>37.4419239048076</v>
       </c>
       <c r="C22">
-        <v>37.83196440539127</v>
+        <v>28.12513997348184</v>
       </c>
       <c r="D22">
-        <v>10.33062191729086</v>
+        <v>10.17030202024466</v>
       </c>
       <c r="E22">
-        <v>5.661763324073755</v>
+        <v>43.25962707501098</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.913201404899791</v>
+        <v>1.941449149513034</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.87782087495593</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>33.34225171410583</v>
       </c>
       <c r="L22">
-        <v>14.92581325014778</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>23.67491250275889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>13.1509050124021</v>
+      </c>
+      <c r="O22">
+        <v>44.61483331370806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.26335116816339</v>
+        <v>36.57738437767304</v>
       </c>
       <c r="C23">
-        <v>36.86484859074243</v>
+        <v>27.46432074123772</v>
       </c>
       <c r="D23">
-        <v>10.07198340059128</v>
+        <v>9.939867070781597</v>
       </c>
       <c r="E23">
-        <v>5.600566891092596</v>
+        <v>42.16411938004249</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.925572160322284</v>
+        <v>1.949605788789885</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.89156189789715</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>32.57284675385201</v>
       </c>
       <c r="L23">
-        <v>14.56149403072585</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>23.06960874805749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>13.15834466775961</v>
+      </c>
+      <c r="O23">
+        <v>43.5803891293044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.97493617245122</v>
+        <v>33.28031223954883</v>
       </c>
       <c r="C24">
-        <v>33.26507286289098</v>
+        <v>24.95340588373411</v>
       </c>
       <c r="D24">
-        <v>9.106057746386062</v>
+        <v>9.058798113789281</v>
       </c>
       <c r="E24">
-        <v>5.386781104754385</v>
+        <v>38.06252462424378</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.969823581177629</v>
+        <v>1.979560837648319</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.48597190150916</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>29.64052428968024</v>
       </c>
       <c r="L24">
-        <v>13.2863966681097</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>20.8168072922921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.22032350670296</v>
+      </c>
+      <c r="O24">
+        <v>39.69600994292985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.49842753641626</v>
+        <v>29.6211307825096</v>
       </c>
       <c r="C25">
-        <v>29.39707544968132</v>
+        <v>22.18082717865463</v>
       </c>
       <c r="D25">
-        <v>8.062420745100878</v>
+        <v>8.077346389302047</v>
       </c>
       <c r="E25">
-        <v>5.181247434292168</v>
+        <v>33.62907370124677</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.014306346941252</v>
+        <v>2.010748489218599</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.53593667621429</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>26.38834086193814</v>
       </c>
       <c r="L25">
-        <v>12.05307225199954</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.39536673631129</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.34283632330416</v>
+      </c>
+      <c r="O25">
+        <v>36.00130355761304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.79820630972052</v>
+        <v>14.20175188776945</v>
       </c>
       <c r="C2">
-        <v>20.04952512268786</v>
+        <v>9.13168568556309</v>
       </c>
       <c r="D2">
-        <v>7.317884541628321</v>
+        <v>7.165368591231294</v>
       </c>
       <c r="E2">
-        <v>30.27735826143175</v>
+        <v>29.58515898286543</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.033391373021095</v>
+        <v>20.75615353070942</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.202733281804509</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.95836332533835</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.87962260881264</v>
+        <v>13.12146487796278</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.46854278615367</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>33.31683783889096</v>
+        <v>13.31496647561242</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.78999370727751</v>
+        <v>13.336754678107</v>
       </c>
       <c r="C3">
-        <v>18.53625729258907</v>
+        <v>8.644902301204205</v>
       </c>
       <c r="D3">
-        <v>6.776400832739247</v>
+        <v>6.671116705287266</v>
       </c>
       <c r="E3">
-        <v>27.92296764758981</v>
+        <v>27.45196102203521</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.048772798147112</v>
+        <v>20.28465960711876</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.262751594218361</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.14605550927055</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.0943148631639</v>
+        <v>12.41127039023548</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.57130675402846</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>31.50229234767792</v>
+        <v>13.2913759654346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.50617682768646</v>
+        <v>12.77654526839706</v>
       </c>
       <c r="C4">
-        <v>17.56975298001846</v>
+        <v>8.33214670293871</v>
       </c>
       <c r="D4">
-        <v>6.429683873863399</v>
+        <v>6.350526310619507</v>
       </c>
       <c r="E4">
-        <v>26.42914558687737</v>
+        <v>26.07808888320296</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.058296562693819</v>
+        <v>20.02363004415223</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.306286767747942</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.27311583385015</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.95243865441103</v>
+        <v>11.95401582017626</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.64187706227021</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>30.38909642237481</v>
+        <v>13.29256663665667</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.96975921752178</v>
+        <v>12.54096324996431</v>
       </c>
       <c r="C5">
-        <v>17.16606776447013</v>
+        <v>8.201264241342827</v>
       </c>
       <c r="D5">
-        <v>6.284678143801928</v>
+        <v>6.219417666151334</v>
       </c>
       <c r="E5">
-        <v>25.8073478778592</v>
+        <v>25.50182727678906</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.062205427356189</v>
+        <v>19.92431250310003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.325630900079425</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.32770579020186</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.47514843971282</v>
+        <v>11.76242845090779</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.67236210563924</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>29.93568199880032</v>
+        <v>13.29680598900064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.87987420513265</v>
+        <v>12.50140565958502</v>
       </c>
       <c r="C6">
-        <v>17.09843090456653</v>
+        <v>8.179325964921489</v>
       </c>
       <c r="D6">
-        <v>6.260371981285193</v>
+        <v>6.200137279401278</v>
       </c>
       <c r="E6">
-        <v>25.70328560145469</v>
+        <v>25.40514108447935</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.062856384567083</v>
+        <v>19.90824316587625</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.328937618060033</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.33693583375356</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.39515911023449</v>
+        <v>11.73030095810518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.67752438404639</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>29.86040881800352</v>
+        <v>13.2977311602641</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.49899676097821</v>
+        <v>12.77339760786844</v>
       </c>
       <c r="C7">
-        <v>17.56434906530633</v>
+        <v>8.33039538726668</v>
       </c>
       <c r="D7">
-        <v>6.427743487718046</v>
+        <v>6.348723513663124</v>
       </c>
       <c r="E7">
-        <v>26.42081379662476</v>
+        <v>26.07038397585337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.058349156569649</v>
+        <v>20.02226221665903</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.30654125767288</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.27384086892673</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.94605079421177</v>
+        <v>11.9514531553942</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.64228138707789</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>30.38298052451495</v>
+        <v>13.29260885853862</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.11599545530462</v>
+        <v>13.90954986364482</v>
       </c>
       <c r="C8">
-        <v>19.53522361603765</v>
+        <v>8.966749461001221</v>
       </c>
       <c r="D8">
-        <v>7.134051725220354</v>
+        <v>6.998482689400097</v>
       </c>
       <c r="E8">
-        <v>29.47497163605884</v>
+        <v>28.86275599729236</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.03868345599624</v>
+        <v>20.58762156410178</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.221992556358087</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.02052677419845</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.27322553245038</v>
+        <v>12.88102750480427</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.50232638684791</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>32.69092637635194</v>
+        <v>13.30346683318013</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.87142956612573</v>
+        <v>15.90638083586635</v>
       </c>
       <c r="C9">
-        <v>23.12676055330341</v>
+        <v>10.10296043822211</v>
       </c>
       <c r="D9">
-        <v>8.413088386736661</v>
+        <v>8.138407946398694</v>
       </c>
       <c r="E9">
-        <v>35.13162199970382</v>
+        <v>33.84386280031558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.0003292400133</v>
+        <v>21.92517307303819</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.112905037539809</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.62544653828917</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.49943853950773</v>
+        <v>14.53347077573839</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.29534564261539</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>37.23482664155788</v>
+        <v>13.45738321340014</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.18098551725016</v>
+        <v>17.23310796565592</v>
       </c>
       <c r="C10">
-        <v>25.63798146817097</v>
+        <v>10.86844803002601</v>
       </c>
       <c r="D10">
-        <v>9.299814433894674</v>
+        <v>8.89632294907091</v>
       </c>
       <c r="E10">
-        <v>39.17185928927643</v>
+        <v>37.22253062292302</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.971556083425099</v>
+        <v>23.04970820202803</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.072705302229314</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.40925605907073</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.44130211002441</v>
+        <v>15.64182260490841</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.19841475500262</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>40.74729330450434</v>
+        <v>13.66231012109224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.65998269057422</v>
+        <v>17.80653850027192</v>
       </c>
       <c r="C11">
-        <v>26.76425931308385</v>
+        <v>11.2016301661007</v>
       </c>
       <c r="D11">
-        <v>9.695057813473497</v>
+        <v>9.22435067936425</v>
       </c>
       <c r="E11">
-        <v>41.0112287732372</v>
+        <v>38.70363440869832</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.958122255234152</v>
+        <v>23.59224542091672</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.064346391773801</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.32998578957501</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.75665478189801</v>
+        <v>16.12301958975198</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.17041420655761</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>42.48977173948253</v>
+        <v>13.77773443713009</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.21770077779038</v>
+        <v>18.01939116453654</v>
       </c>
       <c r="C12">
-        <v>27.18971062590754</v>
+        <v>11.3256461085114</v>
       </c>
       <c r="D12">
-        <v>9.843919137720528</v>
+        <v>9.346201415562346</v>
       </c>
       <c r="E12">
-        <v>41.71096432230436</v>
+        <v>39.25692331456417</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.952961754258338</v>
+        <v>23.80214983995236</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.062719179648482</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.30298699080677</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.25281427933532</v>
+        <v>16.30193895179982</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.16257527983535</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>43.15191645632417</v>
+        <v>13.82481263277785</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.09766292087148</v>
+        <v>17.97373981136077</v>
       </c>
       <c r="C13">
-        <v>27.09810470637629</v>
+        <v>11.29903254588539</v>
       </c>
       <c r="D13">
-        <v>9.811888436305406</v>
+        <v>9.320063216103232</v>
       </c>
       <c r="E13">
-        <v>41.5600638356194</v>
+        <v>39.13809159996121</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.954076874443742</v>
+        <v>23.75674480670017</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.062999404182266</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.3086627627385</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.14601803555443</v>
+        <v>16.263551971605</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.16413223190378</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>43.00917228933927</v>
+        <v>13.81452088062752</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.70590370415348</v>
+        <v>17.82413582159481</v>
       </c>
       <c r="C14">
-        <v>26.7992739325792</v>
+        <v>11.21187608820757</v>
       </c>
       <c r="D14">
-        <v>9.707318545472047</v>
+        <v>9.234422583804573</v>
       </c>
       <c r="E14">
-        <v>41.06871186342883</v>
+        <v>38.74930278128488</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.957699328271568</v>
+        <v>23.60942501249519</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.064181041893367</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.32770241620785</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.79750386261983</v>
+        <v>16.13780543672823</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.16971092250612</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>42.54418749718559</v>
+        <v>13.78153906423554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.46568452529097</v>
+        <v>17.73194118150946</v>
       </c>
       <c r="C15">
-        <v>26.61613862098979</v>
+        <v>11.15821033124332</v>
       </c>
       <c r="D15">
-        <v>9.643173366405613</v>
+        <v>9.1816583712537</v>
       </c>
       <c r="E15">
-        <v>40.76826594506905</v>
+        <v>38.51018667809936</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.959907811047841</v>
+        <v>23.51976805056196</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.065108508629653</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.33976649553714</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.58382310025469</v>
+        <v>16.06035277904306</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.17350323641742</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>42.25973794262504</v>
+        <v>13.76178071825992</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.08391289349433</v>
+        <v>17.19503004302618</v>
       </c>
       <c r="C16">
-        <v>25.56415392640072</v>
+        <v>10.84637175891876</v>
       </c>
       <c r="D16">
-        <v>9.273849597801062</v>
+        <v>8.874552073343343</v>
       </c>
       <c r="E16">
-        <v>39.05191876167521</v>
+        <v>37.12465111532924</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.972425179749323</v>
+        <v>23.01487560356298</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.073460677964299</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.41484351787081</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.35498812897516</v>
+        <v>15.60991286205008</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.2006045934016</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>40.6336241131023</v>
+        <v>13.65522887625282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.23037856428837</v>
+        <v>16.85796500406083</v>
       </c>
       <c r="C17">
-        <v>24.91547981401457</v>
+        <v>10.65122045488105</v>
       </c>
       <c r="D17">
-        <v>9.045429256080393</v>
+        <v>8.681891460594617</v>
       </c>
       <c r="E17">
-        <v>38.00124878074882</v>
+        <v>36.26067396720227</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.980000769115855</v>
+        <v>22.71307557917521</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.081204214327151</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.46597621312234</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.59613336445522</v>
+        <v>15.32769400980815</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.2216407099553</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>39.63795007879511</v>
+        <v>13.5956768291848</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.7368441365513</v>
+        <v>16.66125787134484</v>
       </c>
       <c r="C18">
-        <v>24.54077345221602</v>
+        <v>10.53755753702325</v>
       </c>
       <c r="D18">
-        <v>8.913256572810532</v>
+        <v>8.569498758239098</v>
       </c>
       <c r="E18">
-        <v>37.39684718421755</v>
+        <v>35.75844829651419</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.984327324894767</v>
+        <v>22.5424041031128</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.086585638581848</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.49716404530022</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.15740510317583</v>
+        <v>15.16320331753888</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.23522266545445</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>39.12108362890211</v>
+        <v>13.56350360705231</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.56925563299132</v>
+        <v>16.59416812744981</v>
       </c>
       <c r="C19">
-        <v>24.41359487649237</v>
+        <v>10.49882969347127</v>
       </c>
       <c r="D19">
-        <v>8.868359615533624</v>
+        <v>8.531171991486461</v>
       </c>
       <c r="E19">
-        <v>37.19211444977457</v>
+        <v>35.58748165463449</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.985787575335018</v>
+        <v>22.48511849339069</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.088563724581647</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.5080209654861</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.00843585312811</v>
+        <v>15.10713756125651</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.24006385931811</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>38.94948138625121</v>
+        <v>13.55296199090937</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.32149878121668</v>
+        <v>16.89413945787636</v>
       </c>
       <c r="C20">
-        <v>24.98469034536343</v>
+        <v>10.67214126020925</v>
       </c>
       <c r="D20">
-        <v>9.0698245503416</v>
+        <v>8.702563673258618</v>
       </c>
       <c r="E20">
-        <v>38.11308399955669</v>
+        <v>36.3531899970952</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.979197667611543</v>
+        <v>22.74490092255362</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.080283120850968</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.46034713861964</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.6771393664403</v>
+        <v>15.35796082914898</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.21924501569186</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>39.74391702716608</v>
+        <v>13.60179972326795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.82102290353774</v>
+        <v>17.86819432547633</v>
       </c>
       <c r="C21">
-        <v>26.88706436117118</v>
+        <v>11.23753435427167</v>
       </c>
       <c r="D21">
-        <v>9.738051883838418</v>
+        <v>9.259641181960882</v>
       </c>
       <c r="E21">
-        <v>41.21291855364075</v>
+        <v>38.86370109644866</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.956637539839554</v>
+        <v>23.65257538110539</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.063791314984005</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.32202576291959</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.89991085594356</v>
+        <v>16.17482967329301</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.1679931698408</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>42.68068402465307</v>
+        <v>13.79113379220912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.4419239048076</v>
+        <v>18.47979467548125</v>
       </c>
       <c r="C22">
-        <v>28.12513997348184</v>
+        <v>11.59451396439325</v>
       </c>
       <c r="D22">
-        <v>10.17030202024466</v>
+        <v>9.609952684729278</v>
       </c>
       <c r="E22">
-        <v>43.25962707501098</v>
+        <v>40.46057430612145</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.941449149513034</v>
+        <v>24.27178225512147</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.062033423440477</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.24936598621648</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.34225171410583</v>
+        <v>16.68948004490777</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.1509050124021</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>44.61483331370806</v>
+        <v>13.9345931191986</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.57738437767304</v>
+        <v>18.1556457032888</v>
       </c>
       <c r="C23">
-        <v>27.46432074123772</v>
+        <v>11.40512863689244</v>
       </c>
       <c r="D23">
-        <v>9.939867070781597</v>
+        <v>9.424230198845091</v>
       </c>
       <c r="E23">
-        <v>42.16411938004249</v>
+        <v>39.61214379683813</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.949605788789885</v>
+        <v>23.93891876591707</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.0621083776966</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.28642574595653</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.57284675385201</v>
+        <v>16.41655476193863</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.15834466775961</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>43.5803891293044</v>
+        <v>13.85616481919095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.28031223954883</v>
+        <v>16.87779409738818</v>
       </c>
       <c r="C24">
-        <v>24.95340588373411</v>
+        <v>10.66268753674675</v>
       </c>
       <c r="D24">
-        <v>9.058798113789281</v>
+        <v>8.693222844792562</v>
       </c>
       <c r="E24">
-        <v>38.06252462424378</v>
+        <v>36.31138070813505</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.979560837648319</v>
+        <v>22.73050384701504</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.080696660134205</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.46288648538606</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.64052428968024</v>
+        <v>15.34428417553038</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.22032350670296</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>39.69600994292985</v>
+        <v>13.59902514728107</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.6211307825096</v>
+        <v>15.3909152576195</v>
       </c>
       <c r="C25">
-        <v>22.18082717865463</v>
+        <v>9.8077121905864</v>
       </c>
       <c r="D25">
-        <v>8.077346389302047</v>
+        <v>7.84417252619484</v>
       </c>
       <c r="E25">
-        <v>33.62907370124677</v>
+        <v>32.54727491917803</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.010748489218599</v>
+        <v>21.53850477830995</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.135808127847957</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.72026317902573</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.38834086193814</v>
+        <v>14.10493389356579</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.34283632330416</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>36.00130355761304</v>
+        <v>13.40039471762465</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20175188776945</v>
+        <v>8.802227087239764</v>
       </c>
       <c r="C2">
-        <v>9.13168568556309</v>
+        <v>6.049165449935222</v>
       </c>
       <c r="D2">
-        <v>7.165368591231294</v>
+        <v>5.974228524331156</v>
       </c>
       <c r="E2">
-        <v>29.58515898286543</v>
+        <v>16.49574201292873</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.75615353070942</v>
+        <v>25.2328075183318</v>
       </c>
       <c r="H2">
-        <v>8.202733281804509</v>
+        <v>13.38193240298047</v>
       </c>
       <c r="I2">
-        <v>11.95836332533835</v>
+        <v>19.05111207048686</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.12146487796278</v>
+        <v>8.795251567628915</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.31496647561242</v>
+        <v>19.90110053432614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.336754678107</v>
+        <v>8.41569684850084</v>
       </c>
       <c r="C3">
-        <v>8.644902301204205</v>
+        <v>5.811563294767859</v>
       </c>
       <c r="D3">
-        <v>6.671116705287266</v>
+        <v>5.85326309145764</v>
       </c>
       <c r="E3">
-        <v>27.45196102203521</v>
+        <v>15.56119451767119</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.28465960711876</v>
+        <v>25.27054076881181</v>
       </c>
       <c r="H3">
-        <v>8.262751594218361</v>
+        <v>13.43226909423748</v>
       </c>
       <c r="I3">
-        <v>12.14605550927055</v>
+        <v>19.1512246502861</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.41127039023548</v>
+        <v>8.444828403321209</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.2913759654346</v>
+        <v>19.97604942073842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.77654526839706</v>
+        <v>8.169768105361106</v>
       </c>
       <c r="C4">
-        <v>8.33214670293871</v>
+        <v>5.659536688372878</v>
       </c>
       <c r="D4">
-        <v>6.350526310619507</v>
+        <v>5.779459808479268</v>
       </c>
       <c r="E4">
-        <v>26.07808888320296</v>
+        <v>14.96247296116223</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.02363004415223</v>
+        <v>25.30407212810599</v>
       </c>
       <c r="H4">
-        <v>8.306286767747942</v>
+        <v>13.46564885292902</v>
       </c>
       <c r="I4">
-        <v>12.27311583385015</v>
+        <v>19.21696406550554</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.95401582017626</v>
+        <v>8.220392489884865</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.29256663665667</v>
+        <v>20.02720517676504</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.54096324996431</v>
+        <v>8.067524334455729</v>
       </c>
       <c r="C5">
-        <v>8.201264241342827</v>
+        <v>5.596097088644188</v>
       </c>
       <c r="D5">
-        <v>6.219417666151334</v>
+        <v>5.749549694073675</v>
       </c>
       <c r="E5">
-        <v>25.50182727678906</v>
+        <v>14.71249588218556</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.92431250310003</v>
+        <v>25.32032753401625</v>
       </c>
       <c r="H5">
-        <v>8.325630900079425</v>
+        <v>13.47987250213483</v>
       </c>
       <c r="I5">
-        <v>12.32770579020186</v>
+        <v>19.24482554044844</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.76242845090779</v>
+        <v>8.12668101285931</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.29680598900064</v>
+        <v>20.04933838992627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50140565958502</v>
+        <v>8.050428828148764</v>
       </c>
       <c r="C6">
-        <v>8.179325964921489</v>
+        <v>5.585474928313584</v>
       </c>
       <c r="D6">
-        <v>6.200137279401278</v>
+        <v>5.744594516102799</v>
       </c>
       <c r="E6">
-        <v>25.40514108447935</v>
+        <v>14.67063432727695</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.90824316587625</v>
+        <v>25.32318275845808</v>
       </c>
       <c r="H6">
-        <v>8.328937618060033</v>
+        <v>13.48227182285498</v>
       </c>
       <c r="I6">
-        <v>12.33693583375356</v>
+        <v>19.24951662640783</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.73030095810518</v>
+        <v>8.110986834928772</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.2977311602641</v>
+        <v>20.05309116962562</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.77339760786844</v>
+        <v>8.168397218893958</v>
       </c>
       <c r="C7">
-        <v>8.33039538726668</v>
+        <v>5.658687063355626</v>
       </c>
       <c r="D7">
-        <v>6.348723513663124</v>
+        <v>5.779055698108491</v>
       </c>
       <c r="E7">
-        <v>26.07038397585337</v>
+        <v>14.95912555401343</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.02226221665903</v>
+        <v>25.30428088394173</v>
       </c>
       <c r="H7">
-        <v>8.30654125767288</v>
+        <v>13.46583816404335</v>
       </c>
       <c r="I7">
-        <v>12.27384086892673</v>
+        <v>19.21733547615293</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.9514531553942</v>
+        <v>8.21913766853786</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.29260885853862</v>
+        <v>20.02749846927237</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.90954986364482</v>
+        <v>8.670811889880671</v>
       </c>
       <c r="C8">
-        <v>8.966749461001221</v>
+        <v>5.968545447829428</v>
       </c>
       <c r="D8">
-        <v>6.998482689400097</v>
+        <v>5.932450171339288</v>
       </c>
       <c r="E8">
-        <v>28.86275599729236</v>
+        <v>16.17882526495157</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.58762156410178</v>
+        <v>25.24365883404134</v>
       </c>
       <c r="H8">
-        <v>8.221992556358087</v>
+        <v>13.39877484656722</v>
       </c>
       <c r="I8">
-        <v>12.02052677419845</v>
+        <v>19.08474371920385</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.88102750480427</v>
+        <v>8.676395411522133</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.30346683318013</v>
+        <v>19.92587386534885</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.90638083586635</v>
+        <v>9.582747070962501</v>
       </c>
       <c r="C9">
-        <v>10.10296043822211</v>
+        <v>6.525377183626143</v>
       </c>
       <c r="D9">
-        <v>8.138407946398694</v>
+        <v>6.234956180760538</v>
       </c>
       <c r="E9">
-        <v>33.84386280031558</v>
+        <v>18.44878882261968</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.92517307303819</v>
+        <v>25.2075681352119</v>
       </c>
       <c r="H9">
-        <v>8.112905037539809</v>
+        <v>13.28691539664609</v>
       </c>
       <c r="I9">
-        <v>11.62544653828917</v>
+        <v>18.85868252018835</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.53347077573839</v>
+        <v>9.496490200204592</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.45738321340014</v>
+        <v>19.76755997998172</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.23310796565592</v>
+        <v>10.20237979702595</v>
       </c>
       <c r="C10">
-        <v>10.86844803002601</v>
+        <v>6.901153105512184</v>
       </c>
       <c r="D10">
-        <v>8.89632294907091</v>
+        <v>6.455616513539707</v>
       </c>
       <c r="E10">
-        <v>37.22253062292302</v>
+        <v>20.08626243581957</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.04970820202803</v>
+        <v>25.23214713535756</v>
       </c>
       <c r="H10">
-        <v>8.072705302229314</v>
+        <v>13.21675455227679</v>
       </c>
       <c r="I10">
-        <v>11.40925605907073</v>
+        <v>18.71339201286911</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.64182260490841</v>
+        <v>10.04897030203451</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.66231012109224</v>
+        <v>19.67650850054713</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.80653850027192</v>
+        <v>10.47240948644817</v>
       </c>
       <c r="C11">
-        <v>11.2016301661007</v>
+        <v>7.064480104634161</v>
       </c>
       <c r="D11">
-        <v>9.22435067936425</v>
+        <v>6.555133428207874</v>
       </c>
       <c r="E11">
-        <v>38.70363440869832</v>
+        <v>20.78895828912996</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.59224542091672</v>
+        <v>25.2545088911846</v>
       </c>
       <c r="H11">
-        <v>8.064346391773801</v>
+        <v>13.18745636195474</v>
       </c>
       <c r="I11">
-        <v>11.32998578957501</v>
+        <v>18.65183416738782</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.12301958975198</v>
+        <v>10.28889575368012</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.77773443713009</v>
+        <v>19.64063020463406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.01939116453654</v>
+        <v>10.57289826332373</v>
       </c>
       <c r="C12">
-        <v>11.3256461085114</v>
+        <v>7.12520668109584</v>
       </c>
       <c r="D12">
-        <v>9.346201415562346</v>
+        <v>6.592653273659427</v>
       </c>
       <c r="E12">
-        <v>39.25692331456417</v>
+        <v>21.0490186739538</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.80214983995236</v>
+        <v>25.2645875970926</v>
       </c>
       <c r="H12">
-        <v>8.062719179648482</v>
+        <v>13.17673923573123</v>
       </c>
       <c r="I12">
-        <v>11.30298699080677</v>
+        <v>18.62917814155828</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.30193895179982</v>
+        <v>10.37807331133244</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.82481263277785</v>
+        <v>19.62784541385059</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.97373981136077</v>
+        <v>10.55133562097661</v>
       </c>
       <c r="C13">
-        <v>11.29903254588539</v>
+        <v>7.112178401270578</v>
       </c>
       <c r="D13">
-        <v>9.320063216103232</v>
+        <v>6.584580671967304</v>
       </c>
       <c r="E13">
-        <v>39.13809159996121</v>
+        <v>20.99327791653261</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.75674480670017</v>
+        <v>25.26234530533871</v>
       </c>
       <c r="H13">
-        <v>8.062999404182266</v>
+        <v>13.17903055767658</v>
       </c>
       <c r="I13">
-        <v>11.3086627627385</v>
+        <v>18.63402836996155</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.263551971605</v>
+        <v>10.3589424501268</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.81452088062752</v>
+        <v>19.63056312593069</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.82413582159481</v>
+        <v>10.48071246592506</v>
       </c>
       <c r="C14">
-        <v>11.21187608820757</v>
+        <v>7.069498737911071</v>
       </c>
       <c r="D14">
-        <v>9.234422583804573</v>
+        <v>6.558223742786656</v>
       </c>
       <c r="E14">
-        <v>38.74930278128488</v>
+        <v>20.81047438200144</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.60942501249519</v>
+        <v>25.25530578122132</v>
       </c>
       <c r="H14">
-        <v>8.064181041893367</v>
+        <v>13.18656708715787</v>
       </c>
       <c r="I14">
-        <v>11.32770241620785</v>
+        <v>18.64995710950613</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.13780543672823</v>
+        <v>10.29626624908822</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.78153906423554</v>
+        <v>19.63956230195838</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.73194118150946</v>
+        <v>10.43722212947939</v>
       </c>
       <c r="C15">
-        <v>11.15821033124332</v>
+        <v>7.043209395814102</v>
       </c>
       <c r="D15">
-        <v>9.1816583712537</v>
+        <v>6.542056691521115</v>
       </c>
       <c r="E15">
-        <v>38.51018667809936</v>
+        <v>20.69771693888543</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.51976805056196</v>
+        <v>25.25120368958693</v>
       </c>
       <c r="H15">
-        <v>8.065108508629653</v>
+        <v>13.19123261413548</v>
       </c>
       <c r="I15">
-        <v>11.33976649553714</v>
+        <v>18.65979924212688</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.06035277904306</v>
+        <v>10.25765585595188</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.76178071825992</v>
+        <v>19.64517907727918</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.19503004302618</v>
+        <v>10.18448881590138</v>
       </c>
       <c r="C16">
-        <v>10.84637175891876</v>
+        <v>6.890323680228767</v>
       </c>
       <c r="D16">
-        <v>8.874552073343343</v>
+        <v>6.449091932178947</v>
       </c>
       <c r="E16">
-        <v>37.12465111532924</v>
+        <v>20.03949327269582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.01487560356298</v>
+        <v>25.23091104141346</v>
       </c>
       <c r="H16">
-        <v>8.073460677964299</v>
+        <v>13.21872202647991</v>
       </c>
       <c r="I16">
-        <v>11.41484351787081</v>
+        <v>18.71750643195947</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.60991286205008</v>
+        <v>10.03305784763529</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.65522887625282</v>
+        <v>19.67896514480667</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85796500406083</v>
+        <v>10.02636380904209</v>
       </c>
       <c r="C17">
-        <v>10.65122045488105</v>
+        <v>6.794562397078844</v>
       </c>
       <c r="D17">
-        <v>8.681891460594617</v>
+        <v>6.391810213060949</v>
       </c>
       <c r="E17">
-        <v>36.26067396720227</v>
+        <v>19.62490965048337</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.71307557917521</v>
+        <v>25.22132874015671</v>
       </c>
       <c r="H17">
-        <v>8.081204214327151</v>
+        <v>13.23625718174107</v>
       </c>
       <c r="I17">
-        <v>11.46597621312234</v>
+        <v>18.75407125954367</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.32769400980815</v>
+        <v>9.892325583050637</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.5956768291848</v>
+        <v>19.7011144985423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.66125787134484</v>
+        <v>9.934302673743263</v>
       </c>
       <c r="C18">
-        <v>10.53755753702325</v>
+        <v>6.738767559176917</v>
       </c>
       <c r="D18">
-        <v>8.569498758239098</v>
+        <v>6.358784401757159</v>
       </c>
       <c r="E18">
-        <v>35.75844829651419</v>
+        <v>19.38247818502258</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.5424041031128</v>
+        <v>25.21686960539656</v>
       </c>
       <c r="H18">
-        <v>8.086585638581848</v>
+        <v>13.246589331566</v>
       </c>
       <c r="I18">
-        <v>11.49716404530022</v>
+        <v>18.77552913950205</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.16320331753888</v>
+        <v>9.810308873021063</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.56350360705231</v>
+        <v>19.71437554216642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59416812744981</v>
+        <v>9.90294346980045</v>
       </c>
       <c r="C19">
-        <v>10.49882969347127</v>
+        <v>6.719754385194932</v>
       </c>
       <c r="D19">
-        <v>8.531171991486461</v>
+        <v>6.347590169664698</v>
       </c>
       <c r="E19">
-        <v>35.58748165463449</v>
+        <v>19.2997115235946</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.48511849339069</v>
+        <v>25.21554042815179</v>
       </c>
       <c r="H19">
-        <v>8.088563724581647</v>
+        <v>13.2501299092604</v>
       </c>
       <c r="I19">
-        <v>11.5080209654861</v>
+        <v>18.78286763356558</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.10713756125651</v>
+        <v>9.782356684974104</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.55296199090937</v>
+        <v>19.7189548954654</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89413945787636</v>
+        <v>10.04331203863983</v>
       </c>
       <c r="C20">
-        <v>10.67214126020925</v>
+        <v>6.804830605628641</v>
       </c>
       <c r="D20">
-        <v>8.702563673258618</v>
+        <v>6.397916418386061</v>
       </c>
       <c r="E20">
-        <v>36.3531899970952</v>
+        <v>19.6694538327711</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.74490092255362</v>
+        <v>25.22223984808381</v>
       </c>
       <c r="H20">
-        <v>8.080283120850968</v>
+        <v>13.23436502696164</v>
       </c>
       <c r="I20">
-        <v>11.46034713861964</v>
+        <v>18.75013468624319</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.35796082914898</v>
+        <v>9.907417933120847</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.60179972326795</v>
+        <v>19.69870267268812</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.86819432547633</v>
+        <v>10.50150456435183</v>
       </c>
       <c r="C21">
-        <v>11.23753435427167</v>
+        <v>7.082065427914684</v>
       </c>
       <c r="D21">
-        <v>9.259641181960882</v>
+        <v>6.565970206262532</v>
       </c>
       <c r="E21">
-        <v>38.86370109644866</v>
+        <v>20.86433174618707</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.65257538110539</v>
+        <v>25.25732973186924</v>
       </c>
       <c r="H21">
-        <v>8.063791314984005</v>
+        <v>13.18434317393515</v>
       </c>
       <c r="I21">
-        <v>11.32202576291959</v>
+        <v>18.64526066765847</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.17482967329301</v>
+        <v>10.3147215524504</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.79113379220912</v>
+        <v>19.63689723581145</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.47979467548125</v>
+        <v>10.79064640075132</v>
       </c>
       <c r="C22">
-        <v>11.59451396439325</v>
+        <v>7.256706034839555</v>
       </c>
       <c r="D22">
-        <v>9.609952684729278</v>
+        <v>6.674823709261621</v>
       </c>
       <c r="E22">
-        <v>40.46057430612145</v>
+        <v>21.61009038022227</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.27178225512147</v>
+        <v>25.28965157213545</v>
       </c>
       <c r="H22">
-        <v>8.062033423440477</v>
+        <v>13.15385158671686</v>
       </c>
       <c r="I22">
-        <v>11.24936598621648</v>
+        <v>18.58053607320872</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.68948004490777</v>
+        <v>10.5711297408188</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.9345931191986</v>
+        <v>19.60117784483431</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.1556457032888</v>
+        <v>10.63728773647104</v>
       </c>
       <c r="C23">
-        <v>11.40512863689244</v>
+        <v>7.164104020628505</v>
       </c>
       <c r="D23">
-        <v>9.424230198845091</v>
+        <v>6.61682908742711</v>
       </c>
       <c r="E23">
-        <v>39.61214379683813</v>
+        <v>21.21527158482367</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>23.93891876591707</v>
+        <v>25.27154139030797</v>
       </c>
       <c r="H23">
-        <v>8.0621083776966</v>
+        <v>13.16992385174271</v>
       </c>
       <c r="I23">
-        <v>11.28642574595653</v>
+        <v>18.61473077538648</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.41655476193863</v>
+        <v>10.43518642049684</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.85616481919095</v>
+        <v>19.61981278284345</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87779409738818</v>
+        <v>10.03565333042006</v>
       </c>
       <c r="C24">
-        <v>10.66268753674675</v>
+        <v>6.800190652715535</v>
       </c>
       <c r="D24">
-        <v>8.693222844792562</v>
+        <v>6.395156091957295</v>
       </c>
       <c r="E24">
-        <v>36.31138070813505</v>
+        <v>19.64932812497496</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.73050384701504</v>
+        <v>25.22182466612052</v>
       </c>
       <c r="H24">
-        <v>8.080696660134205</v>
+        <v>13.23521968845751</v>
       </c>
       <c r="I24">
-        <v>11.46288648538606</v>
+        <v>18.75191305218705</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.34428417553038</v>
+        <v>9.900598129525587</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.59902514728107</v>
+        <v>19.69979141760765</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.3909152576195</v>
+        <v>9.344534985065694</v>
       </c>
       <c r="C25">
-        <v>9.8077121905864</v>
+        <v>6.380444207906885</v>
       </c>
       <c r="D25">
-        <v>7.84417252619484</v>
+        <v>6.153215842418496</v>
       </c>
       <c r="E25">
-        <v>32.54727491917803</v>
+        <v>17.80813436839876</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.53850477830995</v>
+        <v>25.20839509366269</v>
       </c>
       <c r="H25">
-        <v>8.135808127847957</v>
+        <v>13.31506818483527</v>
       </c>
       <c r="I25">
-        <v>11.72026317902573</v>
+        <v>18.91619341162558</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.10493389356579</v>
+        <v>9.283211298095612</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.40039471762465</v>
+        <v>19.80597186381521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.802227087239764</v>
+        <v>14.20175188776942</v>
       </c>
       <c r="C2">
-        <v>6.049165449935222</v>
+        <v>9.131685685563438</v>
       </c>
       <c r="D2">
-        <v>5.974228524331156</v>
+        <v>7.165368591231265</v>
       </c>
       <c r="E2">
-        <v>16.49574201292873</v>
+        <v>29.58515898286536</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.2328075183318</v>
+        <v>20.75615353070947</v>
       </c>
       <c r="H2">
-        <v>13.38193240298047</v>
+        <v>8.202733281804402</v>
       </c>
       <c r="I2">
-        <v>19.05111207048686</v>
+        <v>11.95836332533839</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.795251567628915</v>
+        <v>13.12146487796282</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.90110053432614</v>
+        <v>13.31496647561239</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.41569684850084</v>
+        <v>13.33675467810698</v>
       </c>
       <c r="C3">
-        <v>5.811563294767859</v>
+        <v>8.644902301204114</v>
       </c>
       <c r="D3">
-        <v>5.85326309145764</v>
+        <v>6.671116705287266</v>
       </c>
       <c r="E3">
-        <v>15.56119451767119</v>
+        <v>27.45196102203525</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.27054076881181</v>
+        <v>20.28465960711856</v>
       </c>
       <c r="H3">
-        <v>13.43226909423748</v>
+        <v>8.262751594218374</v>
       </c>
       <c r="I3">
-        <v>19.1512246502861</v>
+        <v>12.14605550927045</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.444828403321209</v>
+        <v>12.41127039023547</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.97604942073842</v>
+        <v>13.29137596543455</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.169768105361106</v>
+        <v>12.77654526839711</v>
       </c>
       <c r="C4">
-        <v>5.659536688372878</v>
+        <v>8.33214670293871</v>
       </c>
       <c r="D4">
-        <v>5.779459808479268</v>
+        <v>6.350526310619554</v>
       </c>
       <c r="E4">
-        <v>14.96247296116223</v>
+        <v>26.07808888320294</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.30407212810599</v>
+        <v>20.02363004415226</v>
       </c>
       <c r="H4">
-        <v>13.46564885292902</v>
+        <v>8.306286767747958</v>
       </c>
       <c r="I4">
-        <v>19.21696406550554</v>
+        <v>12.27311583385016</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.220392489884865</v>
+        <v>11.95401582017632</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.02720517676504</v>
+        <v>13.29256663665669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.067524334455729</v>
+        <v>12.54096324996435</v>
       </c>
       <c r="C5">
-        <v>5.596097088644188</v>
+        <v>8.201264241342789</v>
       </c>
       <c r="D5">
-        <v>5.749549694073675</v>
+        <v>6.219417666151345</v>
       </c>
       <c r="E5">
-        <v>14.71249588218556</v>
+        <v>25.50182727678913</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.32032753401625</v>
+        <v>19.9243125030999</v>
       </c>
       <c r="H5">
-        <v>13.47987250213483</v>
+        <v>8.325630900079373</v>
       </c>
       <c r="I5">
-        <v>19.24482554044844</v>
+        <v>12.32770579020171</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.12668101285931</v>
+        <v>11.76242845090784</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.04933838992627</v>
+        <v>13.29680598900048</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.050428828148764</v>
+        <v>12.50140565958506</v>
       </c>
       <c r="C6">
-        <v>5.585474928313584</v>
+        <v>8.179325964921476</v>
       </c>
       <c r="D6">
-        <v>5.744594516102799</v>
+        <v>6.200137279401292</v>
       </c>
       <c r="E6">
-        <v>14.67063432727695</v>
+        <v>25.40514108447939</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.32318275845808</v>
+        <v>19.90824316587604</v>
       </c>
       <c r="H6">
-        <v>13.48227182285498</v>
+        <v>8.328937618059987</v>
       </c>
       <c r="I6">
-        <v>19.24951662640783</v>
+        <v>12.33693583375335</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.110986834928772</v>
+        <v>11.7303009581052</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.05309116962562</v>
+        <v>13.29773116026393</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.168397218893958</v>
+        <v>12.77339760786844</v>
       </c>
       <c r="C7">
-        <v>5.658687063355626</v>
+        <v>8.330395387266666</v>
       </c>
       <c r="D7">
-        <v>5.779055698108491</v>
+        <v>6.348723513663124</v>
       </c>
       <c r="E7">
-        <v>14.95912555401343</v>
+        <v>26.07038397585342</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.30428088394173</v>
+        <v>20.02226221665901</v>
       </c>
       <c r="H7">
-        <v>13.46583816404335</v>
+        <v>8.306541257672924</v>
       </c>
       <c r="I7">
-        <v>19.21733547615293</v>
+        <v>12.27384086892672</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.21913766853786</v>
+        <v>11.9514531553942</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.02749846927237</v>
+        <v>13.29260885853861</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.670811889880671</v>
+        <v>13.90954986364479</v>
       </c>
       <c r="C8">
-        <v>5.968545447829428</v>
+        <v>8.96674946100122</v>
       </c>
       <c r="D8">
-        <v>5.932450171339288</v>
+        <v>6.998482689400117</v>
       </c>
       <c r="E8">
-        <v>16.17882526495157</v>
+        <v>28.86275599729234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.24365883404134</v>
+        <v>20.58762156410191</v>
       </c>
       <c r="H8">
-        <v>13.39877484656722</v>
+        <v>8.221992556358094</v>
       </c>
       <c r="I8">
-        <v>19.08474371920385</v>
+        <v>12.02052677419849</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.676395411522133</v>
+        <v>12.88102750480422</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.92587386534885</v>
+        <v>13.30346683318024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.582747070962501</v>
+        <v>15.90638083586637</v>
       </c>
       <c r="C9">
-        <v>6.525377183626143</v>
+        <v>10.10296043822217</v>
       </c>
       <c r="D9">
-        <v>6.234956180760538</v>
+        <v>8.13840794639869</v>
       </c>
       <c r="E9">
-        <v>18.44878882261968</v>
+        <v>33.84386280031549</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.2075681352119</v>
+        <v>21.92517307303823</v>
       </c>
       <c r="H9">
-        <v>13.28691539664609</v>
+        <v>8.11290503753979</v>
       </c>
       <c r="I9">
-        <v>18.85868252018835</v>
+        <v>11.62544653828925</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.496490200204592</v>
+        <v>14.53347077573844</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.76755997998172</v>
+        <v>13.45738321340016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.20237979702595</v>
+        <v>17.23310796565592</v>
       </c>
       <c r="C10">
-        <v>6.901153105512184</v>
+        <v>10.86844803002599</v>
       </c>
       <c r="D10">
-        <v>6.455616513539707</v>
+        <v>8.896322949070885</v>
       </c>
       <c r="E10">
-        <v>20.08626243581957</v>
+        <v>37.22253062292298</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.23214713535756</v>
+        <v>23.04970820202808</v>
       </c>
       <c r="H10">
-        <v>13.21675455227679</v>
+        <v>8.072705302229314</v>
       </c>
       <c r="I10">
-        <v>18.71339201286911</v>
+        <v>11.40925605907078</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.04897030203451</v>
+        <v>15.64182260490844</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.67650850054713</v>
+        <v>13.66231012109228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47240948644817</v>
+        <v>17.80653850027197</v>
       </c>
       <c r="C11">
-        <v>7.064480104634161</v>
+        <v>11.20163016610052</v>
       </c>
       <c r="D11">
-        <v>6.555133428207874</v>
+        <v>9.224350679364255</v>
       </c>
       <c r="E11">
-        <v>20.78895828912996</v>
+        <v>38.70363440869841</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.2545088911846</v>
+        <v>23.59224542091679</v>
       </c>
       <c r="H11">
-        <v>13.18745636195474</v>
+        <v>8.064346391773901</v>
       </c>
       <c r="I11">
-        <v>18.65183416738782</v>
+        <v>11.32998578957501</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.28889575368012</v>
+        <v>16.12301958975195</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.64063020463406</v>
+        <v>13.77773443713013</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.57289826332373</v>
+        <v>18.01939116453663</v>
       </c>
       <c r="C12">
-        <v>7.12520668109584</v>
+        <v>11.32564610851139</v>
       </c>
       <c r="D12">
-        <v>6.592653273659427</v>
+        <v>9.346201415562374</v>
       </c>
       <c r="E12">
-        <v>21.0490186739538</v>
+        <v>39.25692331456418</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.2645875970926</v>
+        <v>23.80214983995232</v>
       </c>
       <c r="H12">
-        <v>13.17673923573123</v>
+        <v>8.062719179648361</v>
       </c>
       <c r="I12">
-        <v>18.62917814155828</v>
+        <v>11.30298699080662</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.37807331133244</v>
+        <v>16.30193895179988</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.62784541385059</v>
+        <v>13.82481263277774</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.55133562097661</v>
+        <v>17.97373981136084</v>
       </c>
       <c r="C13">
-        <v>7.112178401270578</v>
+        <v>11.29903254588534</v>
       </c>
       <c r="D13">
-        <v>6.584580671967304</v>
+        <v>9.32006321610324</v>
       </c>
       <c r="E13">
-        <v>20.99327791653261</v>
+        <v>39.1380915999611</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.26234530533871</v>
+        <v>23.75674480670032</v>
       </c>
       <c r="H13">
-        <v>13.17903055767658</v>
+        <v>8.062999404182296</v>
       </c>
       <c r="I13">
-        <v>18.63402836996155</v>
+        <v>11.30866276273847</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.3589424501268</v>
+        <v>16.26355197160503</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.63056312593069</v>
+        <v>13.81452088062754</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48071246592506</v>
+        <v>17.82413582159479</v>
       </c>
       <c r="C14">
-        <v>7.069498737911071</v>
+        <v>11.21187608820752</v>
       </c>
       <c r="D14">
-        <v>6.558223742786656</v>
+        <v>9.234422583804522</v>
       </c>
       <c r="E14">
-        <v>20.81047438200144</v>
+        <v>38.74930278128483</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.25530578122132</v>
+        <v>23.60942501249525</v>
       </c>
       <c r="H14">
-        <v>13.18656708715787</v>
+        <v>8.064181041893278</v>
       </c>
       <c r="I14">
-        <v>18.64995710950613</v>
+        <v>11.32770241620785</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.29626624908822</v>
+        <v>16.1378054367282</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.63956230195838</v>
+        <v>13.78153906423553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.43722212947939</v>
+        <v>17.73194118150953</v>
       </c>
       <c r="C15">
-        <v>7.043209395814102</v>
+        <v>11.1582103312433</v>
       </c>
       <c r="D15">
-        <v>6.542056691521115</v>
+        <v>9.181658371253665</v>
       </c>
       <c r="E15">
-        <v>20.69771693888543</v>
+        <v>38.51018667809947</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.25120368958693</v>
+        <v>23.51976805056196</v>
       </c>
       <c r="H15">
-        <v>13.19123261413548</v>
+        <v>8.065108508629621</v>
       </c>
       <c r="I15">
-        <v>18.65979924212688</v>
+        <v>11.33976649553711</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.25765585595188</v>
+        <v>16.06035277904311</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.64517907727918</v>
+        <v>13.7617807182599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.18448881590138</v>
+        <v>17.19503004302623</v>
       </c>
       <c r="C16">
-        <v>6.890323680228767</v>
+        <v>10.84637175891876</v>
       </c>
       <c r="D16">
-        <v>6.449091932178947</v>
+        <v>8.874552073343343</v>
       </c>
       <c r="E16">
-        <v>20.03949327269582</v>
+        <v>37.1246511153293</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.23091104141346</v>
+        <v>23.014875603563</v>
       </c>
       <c r="H16">
-        <v>13.21872202647991</v>
+        <v>8.073460677964251</v>
       </c>
       <c r="I16">
-        <v>18.71750643195947</v>
+        <v>11.4148435178708</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.03305784763529</v>
+        <v>15.60991286205012</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.67896514480667</v>
+        <v>13.65522887625279</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.02636380904209</v>
+        <v>16.85796500406087</v>
       </c>
       <c r="C17">
-        <v>6.794562397078844</v>
+        <v>10.6512204548812</v>
       </c>
       <c r="D17">
-        <v>6.391810213060949</v>
+        <v>8.681891460594603</v>
       </c>
       <c r="E17">
-        <v>19.62490965048337</v>
+        <v>36.26067396720231</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.22132874015671</v>
+        <v>22.71307557917518</v>
       </c>
       <c r="H17">
-        <v>13.23625718174107</v>
+        <v>8.081204214327101</v>
       </c>
       <c r="I17">
-        <v>18.75407125954367</v>
+        <v>11.46597621312228</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.892325583050637</v>
+        <v>15.32769400980821</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.7011144985423</v>
+        <v>13.59567682918474</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.934302673743263</v>
+        <v>16.66125787134488</v>
       </c>
       <c r="C18">
-        <v>6.738767559176917</v>
+        <v>10.53755753702319</v>
       </c>
       <c r="D18">
-        <v>6.358784401757159</v>
+        <v>8.569498758239112</v>
       </c>
       <c r="E18">
-        <v>19.38247818502258</v>
+        <v>35.7584482965141</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.21686960539656</v>
+        <v>22.54240410311269</v>
       </c>
       <c r="H18">
-        <v>13.246589331566</v>
+        <v>8.086585638581759</v>
       </c>
       <c r="I18">
-        <v>18.77552913950205</v>
+        <v>11.4971640453001</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.810308873021063</v>
+        <v>15.16320331753892</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.71437554216642</v>
+        <v>13.56350360705222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.90294346980045</v>
+        <v>16.59416812744987</v>
       </c>
       <c r="C19">
-        <v>6.719754385194932</v>
+        <v>10.49882969347125</v>
       </c>
       <c r="D19">
-        <v>6.347590169664698</v>
+        <v>8.531171991486444</v>
       </c>
       <c r="E19">
-        <v>19.2997115235946</v>
+        <v>35.58748165463447</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.21554042815179</v>
+        <v>22.48511849339068</v>
       </c>
       <c r="H19">
-        <v>13.2501299092604</v>
+        <v>8.088563724581642</v>
       </c>
       <c r="I19">
-        <v>18.78286763356558</v>
+        <v>11.50802096548606</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.782356684974104</v>
+        <v>15.10713756125654</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.7189548954654</v>
+        <v>13.55296199090936</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.04331203863983</v>
+        <v>16.89413945787638</v>
       </c>
       <c r="C20">
-        <v>6.804830605628641</v>
+        <v>10.6721412602092</v>
       </c>
       <c r="D20">
-        <v>6.397916418386061</v>
+        <v>8.702563673258672</v>
       </c>
       <c r="E20">
-        <v>19.6694538327711</v>
+        <v>36.35318999709521</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.22223984808381</v>
+        <v>22.74490092255366</v>
       </c>
       <c r="H20">
-        <v>13.23436502696164</v>
+        <v>8.080283120851025</v>
       </c>
       <c r="I20">
-        <v>18.75013468624319</v>
+        <v>11.46034713861967</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.907417933120847</v>
+        <v>15.35796082914897</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.69870267268812</v>
+        <v>13.60179972326798</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.50150456435183</v>
+        <v>17.86819432547636</v>
       </c>
       <c r="C21">
-        <v>7.082065427914684</v>
+        <v>11.23753435427142</v>
       </c>
       <c r="D21">
-        <v>6.565970206262532</v>
+        <v>9.25964118196095</v>
       </c>
       <c r="E21">
-        <v>20.86433174618707</v>
+        <v>38.86370109644854</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.25732973186924</v>
+        <v>23.65257538110537</v>
       </c>
       <c r="H21">
-        <v>13.18434317393515</v>
+        <v>8.063791314984051</v>
       </c>
       <c r="I21">
-        <v>18.64526066765847</v>
+        <v>11.32202576291959</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.3147215524504</v>
+        <v>16.17482967329296</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.63689723581145</v>
+        <v>13.79113379220916</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.79064640075132</v>
+        <v>18.47979467548119</v>
       </c>
       <c r="C22">
-        <v>7.256706034839555</v>
+        <v>11.59451396439318</v>
       </c>
       <c r="D22">
-        <v>6.674823709261621</v>
+        <v>9.609952684729201</v>
       </c>
       <c r="E22">
-        <v>21.61009038022227</v>
+        <v>40.46057430612138</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.28965157213545</v>
+        <v>24.27178225512154</v>
       </c>
       <c r="H22">
-        <v>13.15385158671686</v>
+        <v>8.062033423440516</v>
       </c>
       <c r="I22">
-        <v>18.58053607320872</v>
+        <v>11.24936598621657</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.5711297408188</v>
+        <v>16.68948004490777</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.60117784483431</v>
+        <v>13.93459311919868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.63728773647104</v>
+        <v>18.15564570328879</v>
       </c>
       <c r="C23">
-        <v>7.164104020628505</v>
+        <v>11.40512863689242</v>
       </c>
       <c r="D23">
-        <v>6.61682908742711</v>
+        <v>9.424230198845143</v>
       </c>
       <c r="E23">
-        <v>21.21527158482367</v>
+        <v>39.6121437968382</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.27154139030797</v>
+        <v>23.93891876591709</v>
       </c>
       <c r="H23">
-        <v>13.16992385174271</v>
+        <v>8.062108377696608</v>
       </c>
       <c r="I23">
-        <v>18.61473077538648</v>
+        <v>11.28642574595654</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.43518642049684</v>
+        <v>16.41655476193861</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.61981278284345</v>
+        <v>13.85616481919096</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.03565333042006</v>
+        <v>16.87779409738811</v>
       </c>
       <c r="C24">
-        <v>6.800190652715535</v>
+        <v>10.66268753674673</v>
       </c>
       <c r="D24">
-        <v>6.395156091957295</v>
+        <v>8.693222844792563</v>
       </c>
       <c r="E24">
-        <v>19.64932812497496</v>
+        <v>36.31138070813491</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.22182466612052</v>
+        <v>22.7305038470153</v>
       </c>
       <c r="H24">
-        <v>13.23521968845751</v>
+        <v>8.08069666013442</v>
       </c>
       <c r="I24">
-        <v>18.75191305218705</v>
+        <v>11.46288648538628</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.900598129525587</v>
+        <v>15.34428417553036</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.69979141760765</v>
+        <v>13.59902514728125</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.344534985065694</v>
+        <v>15.39091525761952</v>
       </c>
       <c r="C25">
-        <v>6.380444207906885</v>
+        <v>9.807712190586226</v>
       </c>
       <c r="D25">
-        <v>6.153215842418496</v>
+        <v>7.844172526194948</v>
       </c>
       <c r="E25">
-        <v>17.80813436839876</v>
+        <v>32.54727491917807</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.20839509366269</v>
+        <v>21.53850477830994</v>
       </c>
       <c r="H25">
-        <v>13.31506818483527</v>
+        <v>8.13580812784795</v>
       </c>
       <c r="I25">
-        <v>18.91619341162558</v>
+        <v>11.72026317902571</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.283211298095612</v>
+        <v>14.10493389356572</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.80597186381521</v>
+        <v>13.40039471762469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20175188776942</v>
+        <v>13.03150124060452</v>
       </c>
       <c r="C2">
-        <v>9.131685685563438</v>
+        <v>9.243110870054229</v>
       </c>
       <c r="D2">
-        <v>7.165368591231265</v>
+        <v>7.120961523282665</v>
       </c>
       <c r="E2">
-        <v>29.58515898286536</v>
+        <v>28.65236265949553</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.75615353070947</v>
+        <v>22.98624356789142</v>
       </c>
       <c r="H2">
-        <v>8.202733281804402</v>
+        <v>2.785124615809035</v>
       </c>
       <c r="I2">
-        <v>11.95836332533839</v>
+        <v>2.797258167799435</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.940146374895297</v>
       </c>
       <c r="K2">
-        <v>13.12146487796282</v>
+        <v>13.51002842026007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.19100194081389</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.31496647561239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.01232656542274</v>
+      </c>
+      <c r="Q2">
+        <v>14.70829504668987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.33675467810698</v>
+        <v>12.20092596068567</v>
       </c>
       <c r="C3">
-        <v>8.644902301204114</v>
+        <v>8.761568705498322</v>
       </c>
       <c r="D3">
-        <v>6.671116705287266</v>
+        <v>6.635090504431969</v>
       </c>
       <c r="E3">
-        <v>27.45196102203525</v>
+        <v>26.80695627801285</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.28465960711856</v>
+        <v>22.39305238058089</v>
       </c>
       <c r="H3">
-        <v>8.262751594218374</v>
+        <v>2.561828136279908</v>
       </c>
       <c r="I3">
-        <v>12.14605550927045</v>
+        <v>2.66433762372649</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.924409310279529</v>
       </c>
       <c r="K3">
-        <v>12.41127039023547</v>
+        <v>13.53681587646606</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.50442407378479</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.29137596543455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.14567846901173</v>
+      </c>
+      <c r="Q3">
+        <v>14.56322688692601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.77654526839711</v>
+        <v>11.6586391408569</v>
       </c>
       <c r="C4">
-        <v>8.33214670293871</v>
+        <v>8.45519760724202</v>
       </c>
       <c r="D4">
-        <v>6.350526310619554</v>
+        <v>6.319364650761663</v>
       </c>
       <c r="E4">
-        <v>26.07808888320294</v>
+        <v>25.60904601781208</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.02363004415226</v>
+        <v>22.03073756359041</v>
       </c>
       <c r="H4">
-        <v>8.306286767747958</v>
+        <v>2.419757865844675</v>
       </c>
       <c r="I4">
-        <v>12.27311583385016</v>
+        <v>2.580416337652617</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.917318625526049</v>
       </c>
       <c r="K4">
-        <v>11.95401582017632</v>
+        <v>13.55677363357434</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.06070679589833</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.29256663665669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.22912616167745</v>
+      </c>
+      <c r="Q4">
+        <v>14.47866807268622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.54096324996435</v>
+        <v>11.42456208739998</v>
       </c>
       <c r="C5">
-        <v>8.201264241342789</v>
+        <v>8.335651000495004</v>
       </c>
       <c r="D5">
-        <v>6.219417666151345</v>
+        <v>6.198620947494837</v>
       </c>
       <c r="E5">
-        <v>25.50182727678913</v>
+        <v>25.10439075072413</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.9243125030999</v>
+        <v>21.87256338947916</v>
       </c>
       <c r="H5">
-        <v>8.325630900079373</v>
+        <v>2.360469241409436</v>
       </c>
       <c r="I5">
-        <v>12.32770579020171</v>
+        <v>2.546286713883197</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.913277871642354</v>
       </c>
       <c r="K5">
-        <v>11.76242845090784</v>
+        <v>13.56115665487826</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.87434674169817</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.29680598900048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.26335121010427</v>
+      </c>
+      <c r="Q5">
+        <v>14.44078994474904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50140565958506</v>
+        <v>11.379135275156</v>
       </c>
       <c r="C6">
-        <v>8.179325964921476</v>
+        <v>8.325355108563194</v>
       </c>
       <c r="D6">
-        <v>6.200137279401292</v>
+        <v>6.179612705308162</v>
       </c>
       <c r="E6">
-        <v>25.40514108447939</v>
+        <v>25.01938056507099</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.90824316587604</v>
+        <v>21.83269147524776</v>
       </c>
       <c r="H6">
-        <v>8.328937618059987</v>
+        <v>2.350392256949438</v>
       </c>
       <c r="I6">
-        <v>12.33693583375335</v>
+        <v>2.541603256364229</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.910465796342905</v>
       </c>
       <c r="K6">
-        <v>11.7303009581052</v>
+        <v>13.55630944568875</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.84301995642974</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.29773116026393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.26883931312258</v>
+      </c>
+      <c r="Q6">
+        <v>14.42901056620038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.77339760786844</v>
+        <v>11.63932331256476</v>
       </c>
       <c r="C7">
-        <v>8.330395387266666</v>
+        <v>8.479652872337937</v>
       </c>
       <c r="D7">
-        <v>6.348723513663124</v>
+        <v>6.317532271039977</v>
       </c>
       <c r="E7">
-        <v>26.07038397585342</v>
+        <v>25.60169964228155</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.02226221665901</v>
+        <v>21.9916421947704</v>
       </c>
       <c r="H7">
-        <v>8.306541257672924</v>
+        <v>2.418546753918932</v>
       </c>
       <c r="I7">
-        <v>12.27384086892672</v>
+        <v>2.582358667870483</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.911324503126803</v>
       </c>
       <c r="K7">
-        <v>11.9514531553942</v>
+        <v>13.54147247863723</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.05807700074337</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.29260885853861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.22903690801399</v>
+      </c>
+      <c r="Q7">
+        <v>14.46303391547915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.90954986364479</v>
+        <v>12.73198861924303</v>
       </c>
       <c r="C8">
-        <v>8.96674946100122</v>
+        <v>9.111808130793472</v>
       </c>
       <c r="D8">
-        <v>6.998482689400117</v>
+        <v>6.956952424734267</v>
       </c>
       <c r="E8">
-        <v>28.86275599729234</v>
+        <v>28.02876663525259</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.58762156410191</v>
+        <v>22.73405961901528</v>
       </c>
       <c r="H8">
-        <v>8.221992556358094</v>
+        <v>2.708630275985165</v>
       </c>
       <c r="I8">
-        <v>12.02052677419849</v>
+        <v>2.754505651219156</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.926384311041172</v>
       </c>
       <c r="K8">
-        <v>12.88102750480422</v>
+        <v>13.4982612342619</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.95873825011346</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.30346683318024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.0574815890611</v>
+      </c>
+      <c r="Q8">
+        <v>14.63762649886369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.90638083586637</v>
+        <v>14.64474886583966</v>
       </c>
       <c r="C9">
-        <v>10.10296043822217</v>
+        <v>10.22169068255604</v>
       </c>
       <c r="D9">
-        <v>8.13840794639869</v>
+        <v>8.074067207199597</v>
       </c>
       <c r="E9">
-        <v>33.84386280031549</v>
+        <v>32.27620311562048</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.92517307303823</v>
+        <v>24.26203668357305</v>
       </c>
       <c r="H9">
-        <v>8.11290503753979</v>
+        <v>3.239623838319212</v>
       </c>
       <c r="I9">
-        <v>11.62544653828925</v>
+        <v>3.071278485799783</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.987599507656217</v>
       </c>
       <c r="K9">
-        <v>14.53347077573844</v>
+        <v>13.4701563248163</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.54706286175392</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.45738321340016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.73371984566818</v>
+      </c>
+      <c r="Q9">
+        <v>15.04279333232752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.23310796565592</v>
+        <v>15.86501916686491</v>
       </c>
       <c r="C10">
-        <v>10.86844803002599</v>
+        <v>10.9519014837082</v>
       </c>
       <c r="D10">
-        <v>8.896322949070885</v>
+        <v>8.812212626329499</v>
       </c>
       <c r="E10">
-        <v>37.22253062292298</v>
+        <v>34.20899355986185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.04970820202808</v>
+        <v>25.18779298141767</v>
       </c>
       <c r="H10">
-        <v>8.072705302229314</v>
+        <v>3.572796920241164</v>
       </c>
       <c r="I10">
-        <v>11.40925605907078</v>
+        <v>3.289221100594607</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.01430699475263</v>
       </c>
       <c r="K10">
-        <v>15.64182260490844</v>
+        <v>13.41559040625304</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.57390910180568</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.66231012109228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.50610558004866</v>
+      </c>
+      <c r="Q10">
+        <v>15.28075263875446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.80653850027197</v>
+        <v>16.16665703492172</v>
       </c>
       <c r="C11">
-        <v>11.20163016610052</v>
+        <v>10.95891181449428</v>
       </c>
       <c r="D11">
-        <v>9.224350679364255</v>
+        <v>9.124310280846444</v>
       </c>
       <c r="E11">
-        <v>38.70363440869841</v>
+        <v>27.55775710418294</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.59224542091679</v>
+        <v>24.02006522671291</v>
       </c>
       <c r="H11">
-        <v>8.064346391773901</v>
+        <v>3.998388504877991</v>
       </c>
       <c r="I11">
-        <v>11.32998578957501</v>
+        <v>3.34366676713835</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.764382549840803</v>
       </c>
       <c r="K11">
-        <v>16.12301958975195</v>
+        <v>12.97123953430183</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.76815891058128</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.77773443713013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.44345717184017</v>
+      </c>
+      <c r="Q11">
+        <v>14.71804427599413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.01939116453663</v>
+        <v>16.19439786115592</v>
       </c>
       <c r="C12">
-        <v>11.32564610851139</v>
+        <v>10.78884786413428</v>
       </c>
       <c r="D12">
-        <v>9.346201415562374</v>
+        <v>9.237800094494553</v>
       </c>
       <c r="E12">
-        <v>39.25692331456418</v>
+        <v>21.54026665293174</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.80214983995232</v>
+        <v>22.86836192756539</v>
       </c>
       <c r="H12">
-        <v>8.062719179648361</v>
+        <v>4.906763959242231</v>
       </c>
       <c r="I12">
-        <v>11.30298699080662</v>
+        <v>3.34551457243964</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.551791044004849</v>
       </c>
       <c r="K12">
-        <v>16.30193895179988</v>
+        <v>12.62819813637955</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.72582497195326</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.82481263277774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.44701911939466</v>
+      </c>
+      <c r="Q12">
+        <v>14.20432645465414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.97373981136084</v>
+        <v>15.99587166674617</v>
       </c>
       <c r="C13">
-        <v>11.29903254588534</v>
+        <v>10.501116585972</v>
       </c>
       <c r="D13">
-        <v>9.32006321610324</v>
+        <v>9.209061165083245</v>
       </c>
       <c r="E13">
-        <v>39.1380915999611</v>
+        <v>15.49345027456984</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.75674480670032</v>
+        <v>21.5867836731462</v>
       </c>
       <c r="H13">
-        <v>8.062999404182296</v>
+        <v>6.015285549345364</v>
       </c>
       <c r="I13">
-        <v>11.30866276273847</v>
+        <v>3.31083286876199</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.345616695996883</v>
       </c>
       <c r="K13">
-        <v>16.26355197160503</v>
+        <v>12.31915730437469</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.49844130076581</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.81452088062754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.49803022839391</v>
+      </c>
+      <c r="Q13">
+        <v>13.67115085772426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.82413582159479</v>
+        <v>15.74854792609377</v>
       </c>
       <c r="C14">
-        <v>11.21187608820752</v>
+        <v>10.25107921856526</v>
       </c>
       <c r="D14">
-        <v>9.234422583804522</v>
+        <v>9.124353322008094</v>
       </c>
       <c r="E14">
-        <v>38.74930278128483</v>
+        <v>11.24902501691279</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.60942501249525</v>
+        <v>20.61395988432148</v>
       </c>
       <c r="H14">
-        <v>8.064181041893278</v>
+        <v>6.864154810994778</v>
       </c>
       <c r="I14">
-        <v>11.32770241620785</v>
+        <v>3.271531167135413</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.203195232477473</v>
       </c>
       <c r="K14">
-        <v>16.1378054367282</v>
+        <v>12.11633643791214</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.25349012749576</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.78153906423553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.55498057465609</v>
+      </c>
+      <c r="Q14">
+        <v>13.28538545346441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.73194118150953</v>
+        <v>15.6336406122716</v>
       </c>
       <c r="C15">
-        <v>11.1582103312433</v>
+        <v>10.17135272918429</v>
       </c>
       <c r="D15">
-        <v>9.181658371253665</v>
+        <v>9.072940124091042</v>
       </c>
       <c r="E15">
-        <v>38.51018667809947</v>
+        <v>10.21178964166549</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.51976805056196</v>
+        <v>20.33882876069267</v>
       </c>
       <c r="H15">
-        <v>8.065108508629621</v>
+        <v>7.059695270160613</v>
       </c>
       <c r="I15">
-        <v>11.33976649553711</v>
+        <v>3.254792491694341</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.168802777774543</v>
       </c>
       <c r="K15">
-        <v>16.06035277904311</v>
+        <v>12.07017282556875</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.15285537155222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.7617807182599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.5780168272513</v>
+      </c>
+      <c r="Q15">
+        <v>13.1839963313636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.19503004302623</v>
+        <v>15.153851983923</v>
       </c>
       <c r="C16">
-        <v>10.84637175891876</v>
+        <v>9.924682402023816</v>
       </c>
       <c r="D16">
-        <v>8.874552073343343</v>
+        <v>8.77604479555283</v>
       </c>
       <c r="E16">
-        <v>37.1246511153293</v>
+        <v>10.12785415533777</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.014875603563</v>
+        <v>20.13300602146803</v>
       </c>
       <c r="H16">
-        <v>8.073460677964251</v>
+        <v>6.790183853063347</v>
       </c>
       <c r="I16">
-        <v>11.4148435178708</v>
+        <v>3.171833598655077</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.194927579758362</v>
       </c>
       <c r="K16">
-        <v>15.60991286205012</v>
+        <v>12.14852729425286</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.7634315663097</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.65522887625279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.65546903050747</v>
+      </c>
+      <c r="Q16">
+        <v>13.17389976147905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85796500406087</v>
+        <v>14.91477980491502</v>
       </c>
       <c r="C17">
-        <v>10.6512204548812</v>
+        <v>9.870858502420212</v>
       </c>
       <c r="D17">
-        <v>8.681891460594603</v>
+        <v>8.590410297218284</v>
       </c>
       <c r="E17">
-        <v>36.26067396720231</v>
+        <v>12.39050999812097</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.71307557917518</v>
+        <v>20.50578537004175</v>
       </c>
       <c r="H17">
-        <v>8.081204214327101</v>
+        <v>6.082337877752034</v>
       </c>
       <c r="I17">
-        <v>11.46597621312228</v>
+        <v>3.128670320293736</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.290944027837991</v>
       </c>
       <c r="K17">
-        <v>15.32769400980821</v>
+        <v>12.31534860696217</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.59438875125799</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.59567682918474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.68626275169357</v>
+      </c>
+      <c r="Q17">
+        <v>13.37317406621232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.66125787134488</v>
+        <v>14.87577659425109</v>
       </c>
       <c r="C18">
-        <v>10.53755753702319</v>
+        <v>9.96662023488703</v>
       </c>
       <c r="D18">
-        <v>8.569498758239112</v>
+        <v>8.483687050735465</v>
       </c>
       <c r="E18">
-        <v>35.7584482965141</v>
+        <v>17.12519701055434</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.54240410311269</v>
+        <v>21.43871238993984</v>
       </c>
       <c r="H18">
-        <v>8.086585638581759</v>
+        <v>4.991309778989883</v>
       </c>
       <c r="I18">
-        <v>11.4971640453001</v>
+        <v>3.114208005630969</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.46075654192617</v>
       </c>
       <c r="K18">
-        <v>15.16320331753892</v>
+        <v>12.58844132750104</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.60371901879643</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.56350360705222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.68287539430221</v>
+      </c>
+      <c r="Q18">
+        <v>13.78305710942352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59416812744987</v>
+        <v>14.97930192129223</v>
       </c>
       <c r="C19">
-        <v>10.49882969347125</v>
+        <v>10.22169880815706</v>
       </c>
       <c r="D19">
-        <v>8.531171991486444</v>
+        <v>8.450020172645662</v>
       </c>
       <c r="E19">
-        <v>35.58748165463447</v>
+        <v>23.5036720446313</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.48511849339068</v>
+        <v>22.6834160326127</v>
       </c>
       <c r="H19">
-        <v>8.088563724581642</v>
+        <v>3.910540859465729</v>
       </c>
       <c r="I19">
-        <v>11.50802096548606</v>
+        <v>3.135142033098094</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.667186260286517</v>
       </c>
       <c r="K19">
-        <v>15.10713756125654</v>
+        <v>12.90537824494264</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.7592303882871</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.55296199090936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.65858068333515</v>
+      </c>
+      <c r="Q19">
+        <v>14.30602615972453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89413945787638</v>
+        <v>15.5144609043597</v>
       </c>
       <c r="C20">
-        <v>10.6721412602092</v>
+        <v>10.82818043900201</v>
       </c>
       <c r="D20">
-        <v>8.702563673258672</v>
+        <v>8.623614033017034</v>
       </c>
       <c r="E20">
-        <v>36.35318999709521</v>
+        <v>33.6723480101271</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.74490092255366</v>
+        <v>24.8351116413732</v>
       </c>
       <c r="H20">
-        <v>8.080283120851025</v>
+        <v>3.483087615268857</v>
       </c>
       <c r="I20">
-        <v>11.46034713861967</v>
+        <v>3.240864281656915</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.987159508502268</v>
       </c>
       <c r="K20">
-        <v>15.35796082914897</v>
+        <v>13.37949945153655</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.30992834363206</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.60179972326798</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.56552951897258</v>
+      </c>
+      <c r="Q20">
+        <v>15.16914142509185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.86819432547636</v>
+        <v>16.44993234957638</v>
       </c>
       <c r="C21">
-        <v>11.23753435427142</v>
+        <v>11.41723156282788</v>
       </c>
       <c r="D21">
-        <v>9.25964118196095</v>
+        <v>9.165775104432369</v>
       </c>
       <c r="E21">
-        <v>38.86370109644854</v>
+        <v>36.42784314955305</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.65257538110537</v>
+        <v>25.84409878061239</v>
       </c>
       <c r="H21">
-        <v>8.063791314984051</v>
+        <v>3.786834530232033</v>
       </c>
       <c r="I21">
-        <v>11.32202576291959</v>
+        <v>3.412249638864612</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.061824995752758</v>
       </c>
       <c r="K21">
-        <v>16.17482967329296</v>
+        <v>13.42634467552161</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.10845682907722</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.79113379220916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.38795352390673</v>
+      </c>
+      <c r="Q21">
+        <v>15.48586709154413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.47979467548119</v>
+        <v>17.03606571523038</v>
       </c>
       <c r="C22">
-        <v>11.59451396439318</v>
+        <v>11.74551187267119</v>
       </c>
       <c r="D22">
-        <v>9.609952684729201</v>
+        <v>9.505420201647651</v>
       </c>
       <c r="E22">
-        <v>40.46057430612138</v>
+        <v>37.71948047695176</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.27178225512154</v>
+        <v>26.44934704815466</v>
       </c>
       <c r="H22">
-        <v>8.062033423440516</v>
+        <v>3.963791338631792</v>
       </c>
       <c r="I22">
-        <v>11.24936598621657</v>
+        <v>3.516366804988865</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.105833158440953</v>
       </c>
       <c r="K22">
-        <v>16.68948004490777</v>
+        <v>13.45713933380011</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.59496903595404</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.93459311919868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.27449009736222</v>
+      </c>
+      <c r="Q22">
+        <v>15.67640677940324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.15564570328879</v>
+        <v>16.73970881255417</v>
       </c>
       <c r="C23">
-        <v>11.40512863689242</v>
+        <v>11.54745739030256</v>
       </c>
       <c r="D23">
-        <v>9.424230198845143</v>
+        <v>9.325531366531015</v>
       </c>
       <c r="E23">
-        <v>39.6121437968382</v>
+        <v>37.03568193630208</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>23.93891876591709</v>
+        <v>26.16345083095764</v>
       </c>
       <c r="H23">
-        <v>8.062108377696608</v>
+        <v>3.870067805743612</v>
       </c>
       <c r="I23">
-        <v>11.28642574595654</v>
+        <v>3.457716983117646</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.088783610392511</v>
       </c>
       <c r="K23">
-        <v>16.41655476193861</v>
+        <v>13.4580445776903</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.33729512873188</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.85616481919096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.33482138989637</v>
+      </c>
+      <c r="Q23">
+        <v>15.59070957664283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.87779409738811</v>
+        <v>15.54060107085795</v>
       </c>
       <c r="C24">
-        <v>10.66268753674673</v>
+        <v>10.81276882676501</v>
       </c>
       <c r="D24">
-        <v>8.693222844792563</v>
+        <v>8.615198664299681</v>
       </c>
       <c r="E24">
-        <v>36.31138070813491</v>
+        <v>34.33418385410884</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.7305038470153</v>
+        <v>25.01964354425622</v>
       </c>
       <c r="H24">
-        <v>8.08069666013442</v>
+        <v>3.507174521394258</v>
       </c>
       <c r="I24">
-        <v>11.46288648538628</v>
+        <v>3.236998625062935</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.019657898257202</v>
       </c>
       <c r="K24">
-        <v>15.34428417553036</v>
+        <v>13.44271353562814</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.32035399327218</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.59902514728125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.56574991876324</v>
+      </c>
+      <c r="Q24">
+        <v>15.24953416733711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.39091525761952</v>
+        <v>14.13006580903327</v>
       </c>
       <c r="C25">
-        <v>9.807712190586226</v>
+        <v>9.971966043666461</v>
       </c>
       <c r="D25">
-        <v>7.844172526194948</v>
+        <v>7.786236176465169</v>
       </c>
       <c r="E25">
-        <v>32.54727491917807</v>
+        <v>31.18090269217794</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.53850477830994</v>
+        <v>23.78703677618925</v>
       </c>
       <c r="H25">
-        <v>8.13580812784795</v>
+        <v>3.099316005819422</v>
       </c>
       <c r="I25">
-        <v>11.72026317902571</v>
+        <v>2.991727688667505</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.958148863806631</v>
       </c>
       <c r="K25">
-        <v>14.10493389356572</v>
+        <v>13.44691752962735</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.13649341088603</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.40039471762469</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.81976544068527</v>
+      </c>
+      <c r="Q25">
+        <v>14.90296422765192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.03150124060452</v>
+        <v>12.8149358585934</v>
       </c>
       <c r="C2">
-        <v>9.243110870054229</v>
+        <v>9.503819626393296</v>
       </c>
       <c r="D2">
-        <v>7.120961523282665</v>
+        <v>7.121071613733474</v>
       </c>
       <c r="E2">
-        <v>28.65236265949553</v>
+        <v>28.65339971963333</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.98624356789142</v>
+        <v>21.69787526289274</v>
       </c>
       <c r="H2">
-        <v>2.785124615809035</v>
+        <v>2.785856047153314</v>
       </c>
       <c r="I2">
-        <v>2.797258167799435</v>
+        <v>2.833452244943775</v>
       </c>
       <c r="J2">
-        <v>8.940146374895297</v>
+        <v>9.302595880739347</v>
       </c>
       <c r="K2">
-        <v>13.51002842026007</v>
+        <v>13.13227611918422</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.63638963194935</v>
       </c>
       <c r="M2">
-        <v>12.19100194081389</v>
+        <v>7.825558557515279</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.1832458028772</v>
       </c>
       <c r="P2">
-        <v>12.01232656542274</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.70829504668987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.97030485778245</v>
+      </c>
+      <c r="S2">
+        <v>14.42120051228084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.20092596068567</v>
+        <v>12.03516898099128</v>
       </c>
       <c r="C3">
-        <v>8.761568705498322</v>
+        <v>8.929505474873935</v>
       </c>
       <c r="D3">
-        <v>6.635090504431969</v>
+        <v>6.635944237657713</v>
       </c>
       <c r="E3">
-        <v>26.80695627801285</v>
+        <v>26.81573533387821</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.39305238058089</v>
+        <v>21.19629080156306</v>
       </c>
       <c r="H3">
-        <v>2.561828136279908</v>
+        <v>2.567924793193335</v>
       </c>
       <c r="I3">
-        <v>2.66433762372649</v>
+        <v>2.715014069560842</v>
       </c>
       <c r="J3">
-        <v>8.924409310279529</v>
+        <v>9.2710208192076</v>
       </c>
       <c r="K3">
-        <v>13.53681587646606</v>
+        <v>13.18722397051618</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.77588972253563</v>
       </c>
       <c r="M3">
-        <v>11.50442407378479</v>
+        <v>7.775893541772964</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.50067158062512</v>
       </c>
       <c r="P3">
-        <v>12.14567846901173</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.56322688692601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.09218898799087</v>
+      </c>
+      <c r="S3">
+        <v>14.30956212902916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.6586391408569</v>
+        <v>11.5260953184761</v>
       </c>
       <c r="C4">
-        <v>8.45519760724202</v>
+        <v>8.562873593108284</v>
       </c>
       <c r="D4">
-        <v>6.319364650761663</v>
+        <v>6.320626289892576</v>
       </c>
       <c r="E4">
-        <v>25.60904601781208</v>
+        <v>25.62285082229764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.03073756359041</v>
+        <v>20.89242605597654</v>
       </c>
       <c r="H4">
-        <v>2.419757865844675</v>
+        <v>2.429226838572242</v>
       </c>
       <c r="I4">
-        <v>2.580416337652617</v>
+        <v>2.64036482464599</v>
       </c>
       <c r="J4">
-        <v>8.917318625526049</v>
+        <v>9.252376130274703</v>
       </c>
       <c r="K4">
-        <v>13.55677363357434</v>
+        <v>13.22325891072895</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.86329205744248</v>
       </c>
       <c r="M4">
-        <v>11.06070679589833</v>
+        <v>7.765667497434397</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.05953650362044</v>
       </c>
       <c r="P4">
-        <v>12.22912616167745</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.47866807268622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.16878857058912</v>
+      </c>
+      <c r="S4">
+        <v>14.24460196109926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.42456208739998</v>
+        <v>11.30610705977187</v>
       </c>
       <c r="C5">
-        <v>8.335651000495004</v>
+        <v>8.418403047535287</v>
       </c>
       <c r="D5">
-        <v>6.198620947494837</v>
+        <v>6.199624459187137</v>
       </c>
       <c r="E5">
-        <v>25.10439075072413</v>
+        <v>25.12032783304799</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.87256338947916</v>
+        <v>20.75842356844438</v>
       </c>
       <c r="H5">
-        <v>2.360469241409436</v>
+        <v>2.371337884464771</v>
       </c>
       <c r="I5">
-        <v>2.546286713883197</v>
+        <v>2.610374710957523</v>
       </c>
       <c r="J5">
-        <v>8.913277871642354</v>
+        <v>9.243192896957462</v>
       </c>
       <c r="K5">
-        <v>13.56115665487826</v>
+        <v>13.23402683152176</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.89523597524655</v>
       </c>
       <c r="M5">
-        <v>10.87434674169817</v>
+        <v>7.764042534121307</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.87427075583917</v>
       </c>
       <c r="P5">
-        <v>12.26335121010427</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.44078994474904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.20033702914563</v>
+      </c>
+      <c r="S5">
+        <v>14.21450919442156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.379135275156</v>
+        <v>11.26309616577782</v>
       </c>
       <c r="C6">
-        <v>8.325355108563194</v>
+        <v>8.404464220960275</v>
       </c>
       <c r="D6">
-        <v>6.179612705308162</v>
+        <v>6.180631349791304</v>
       </c>
       <c r="E6">
-        <v>25.01938056507099</v>
+        <v>25.03568439380446</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.83269147524776</v>
+        <v>20.72243772256157</v>
       </c>
       <c r="H6">
-        <v>2.350392256949438</v>
+        <v>2.361500418695966</v>
       </c>
       <c r="I6">
-        <v>2.541603256364229</v>
+        <v>2.606746527641579</v>
       </c>
       <c r="J6">
-        <v>8.910465796342905</v>
+        <v>9.239516165625979</v>
       </c>
       <c r="K6">
-        <v>13.55630944568875</v>
+        <v>13.23038549336832</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.89554370482728</v>
       </c>
       <c r="M6">
-        <v>10.84301995642974</v>
+        <v>7.76093328961162</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.84313580468713</v>
       </c>
       <c r="P6">
-        <v>12.26883931312258</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.42901056620038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.20546906621744</v>
+      </c>
+      <c r="S6">
+        <v>14.20405896657823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.63932331256476</v>
+        <v>11.50416874911114</v>
       </c>
       <c r="C7">
-        <v>8.479652872337937</v>
+        <v>8.581589960273584</v>
       </c>
       <c r="D7">
-        <v>6.317532271039977</v>
+        <v>6.318754992819418</v>
       </c>
       <c r="E7">
-        <v>25.60169964228155</v>
+        <v>25.61508112370269</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.9916421947704</v>
+        <v>20.94084772924556</v>
       </c>
       <c r="H7">
-        <v>2.418546753918932</v>
+        <v>2.427726491270365</v>
       </c>
       <c r="I7">
-        <v>2.582358667870483</v>
+        <v>2.642819575707399</v>
       </c>
       <c r="J7">
-        <v>8.911324503126803</v>
+        <v>9.20889451995296</v>
       </c>
       <c r="K7">
-        <v>13.54147247863723</v>
+        <v>13.2031568978024</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.84551290262773</v>
       </c>
       <c r="M7">
-        <v>11.05807700074337</v>
+        <v>7.753325580692354</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.0528008667103</v>
       </c>
       <c r="P7">
-        <v>12.22903690801399</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.46303391547915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.16886511334563</v>
+      </c>
+      <c r="S7">
+        <v>14.21973926448264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.73198861924303</v>
+        <v>12.5236885367185</v>
       </c>
       <c r="C8">
-        <v>9.111808130793472</v>
+        <v>9.321628291769885</v>
       </c>
       <c r="D8">
-        <v>6.956952424734267</v>
+        <v>6.95718573609206</v>
       </c>
       <c r="E8">
-        <v>28.02876663525259</v>
+        <v>28.03102750753889</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.73405961901528</v>
+        <v>21.76022452982204</v>
       </c>
       <c r="H8">
-        <v>2.708630275985165</v>
+        <v>2.710217775578693</v>
       </c>
       <c r="I8">
-        <v>2.754505651219156</v>
+        <v>2.795310300622307</v>
       </c>
       <c r="J8">
-        <v>8.926384311041172</v>
+        <v>9.161638526626044</v>
       </c>
       <c r="K8">
-        <v>13.4982612342619</v>
+        <v>13.11362791119898</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.65338867992213</v>
       </c>
       <c r="M8">
-        <v>11.95873825011346</v>
+        <v>7.777939955866815</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.9395069298111</v>
       </c>
       <c r="P8">
-        <v>12.0574815890611</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.63762649886369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.01203095254395</v>
+      </c>
+      <c r="S8">
+        <v>14.33141848577863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.64474886583966</v>
+        <v>14.31913055568472</v>
       </c>
       <c r="C9">
-        <v>10.22169068255604</v>
+        <v>10.63951627430482</v>
       </c>
       <c r="D9">
-        <v>8.074067207199597</v>
+        <v>8.072083516502792</v>
       </c>
       <c r="E9">
-        <v>32.27620311562048</v>
+        <v>32.26009897949134</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.26203668357305</v>
+        <v>23.13385636180492</v>
       </c>
       <c r="H9">
-        <v>3.239623838319212</v>
+        <v>3.22803413768434</v>
       </c>
       <c r="I9">
-        <v>3.071278485799783</v>
+        <v>3.076724826112136</v>
       </c>
       <c r="J9">
-        <v>8.987599507656217</v>
+        <v>9.219314656194603</v>
       </c>
       <c r="K9">
-        <v>13.4701563248163</v>
+        <v>13.00312290207315</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.32902097788292</v>
       </c>
       <c r="M9">
-        <v>13.54706286175392</v>
+        <v>8.016235349602614</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.51646282639065</v>
       </c>
       <c r="P9">
-        <v>11.73371984566818</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.04279333232752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.71850821139834</v>
+      </c>
+      <c r="S9">
+        <v>14.64073855999812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.86501916686491</v>
+        <v>15.45326456496401</v>
       </c>
       <c r="C10">
-        <v>10.9519014837082</v>
+        <v>11.46744101632567</v>
       </c>
       <c r="D10">
-        <v>8.812212626329499</v>
+        <v>8.808059609743244</v>
       </c>
       <c r="E10">
-        <v>34.20899355986185</v>
+        <v>34.17839596976924</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.18779298141767</v>
+        <v>24.4232351507327</v>
       </c>
       <c r="H10">
-        <v>3.572796920241164</v>
+        <v>3.550675499796749</v>
       </c>
       <c r="I10">
-        <v>3.289221100594607</v>
+        <v>3.269449272208325</v>
       </c>
       <c r="J10">
-        <v>9.01430699475263</v>
+        <v>9.033751483059204</v>
       </c>
       <c r="K10">
-        <v>13.41559040625304</v>
+        <v>12.8588834264581</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.0467688340426</v>
       </c>
       <c r="M10">
-        <v>14.57390910180568</v>
+        <v>8.214000504146229</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.51646804329316</v>
       </c>
       <c r="P10">
-        <v>11.50610558004866</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.28075263875446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.51802526252332</v>
+      </c>
+      <c r="S10">
+        <v>14.75872388631251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.16665703492172</v>
+        <v>15.73021746848104</v>
       </c>
       <c r="C11">
-        <v>10.95891181449428</v>
+        <v>11.39892846604537</v>
       </c>
       <c r="D11">
-        <v>9.124310280846444</v>
+        <v>9.119073324007315</v>
       </c>
       <c r="E11">
-        <v>27.55775710418294</v>
+        <v>27.51970944049464</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.02006522671291</v>
+        <v>24.26694679701997</v>
       </c>
       <c r="H11">
-        <v>3.998388504877991</v>
+        <v>3.975628761115704</v>
       </c>
       <c r="I11">
-        <v>3.34366676713835</v>
+        <v>3.316488519219706</v>
       </c>
       <c r="J11">
-        <v>8.764382549840803</v>
+        <v>8.42711612861752</v>
       </c>
       <c r="K11">
-        <v>12.97123953430183</v>
+        <v>12.38892932442606</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.65681224242276</v>
       </c>
       <c r="M11">
-        <v>14.76815891058128</v>
+        <v>7.94437217758764</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.66822146056649</v>
       </c>
       <c r="P11">
-        <v>11.44345717184017</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.71804427599413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.48917496762513</v>
+      </c>
+      <c r="S11">
+        <v>14.10695467653455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.19439786115592</v>
+        <v>15.7623732293929</v>
       </c>
       <c r="C12">
-        <v>10.78884786413428</v>
+        <v>11.16323642519483</v>
       </c>
       <c r="D12">
-        <v>9.237800094494553</v>
+        <v>9.232265824452718</v>
       </c>
       <c r="E12">
-        <v>21.54026665293174</v>
+        <v>21.49806572171691</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.86836192756539</v>
+        <v>23.61021416455269</v>
       </c>
       <c r="H12">
-        <v>4.906763959242231</v>
+        <v>4.888352563852749</v>
       </c>
       <c r="I12">
-        <v>3.34551457243964</v>
+        <v>3.316402187445128</v>
       </c>
       <c r="J12">
-        <v>8.551791044004849</v>
+        <v>8.11193538830015</v>
       </c>
       <c r="K12">
-        <v>12.62819813637955</v>
+        <v>12.06479808476352</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.42485206831795</v>
       </c>
       <c r="M12">
-        <v>14.72582497195326</v>
+        <v>7.698916349985424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.60685767432775</v>
       </c>
       <c r="P12">
-        <v>11.44701911939466</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.20432645465414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.51467833287592</v>
+      </c>
+      <c r="S12">
+        <v>13.57880955491722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.99587166674617</v>
+        <v>15.59676051476309</v>
       </c>
       <c r="C13">
-        <v>10.501116585972</v>
+        <v>10.82572866445335</v>
       </c>
       <c r="D13">
-        <v>9.209061165083245</v>
+        <v>9.203937941342041</v>
       </c>
       <c r="E13">
-        <v>15.49345027456984</v>
+        <v>15.44861735454776</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.5867836731462</v>
+        <v>22.25793164837161</v>
       </c>
       <c r="H13">
-        <v>6.015285549345364</v>
+        <v>6.002022708758103</v>
       </c>
       <c r="I13">
-        <v>3.31083286876199</v>
+        <v>3.286037617333588</v>
       </c>
       <c r="J13">
-        <v>8.345616695996883</v>
+        <v>8.014079817285298</v>
       </c>
       <c r="K13">
-        <v>12.31915730437469</v>
+        <v>11.8199550980941</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.27859239044568</v>
       </c>
       <c r="M13">
-        <v>14.49844130076581</v>
+        <v>7.451644376531254</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.38498168953864</v>
       </c>
       <c r="P13">
-        <v>11.49803022839391</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.67115085772426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.57458636303965</v>
+      </c>
+      <c r="S13">
+        <v>13.10800245807261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.74854792609377</v>
+        <v>15.38557324222615</v>
       </c>
       <c r="C14">
-        <v>10.25107921856526</v>
+        <v>10.54668059630752</v>
       </c>
       <c r="D14">
-        <v>9.124353322008094</v>
+        <v>9.119820024396489</v>
       </c>
       <c r="E14">
-        <v>11.24902501691279</v>
+        <v>11.20122204991265</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.61395988432148</v>
+        <v>20.99026988610171</v>
       </c>
       <c r="H14">
-        <v>6.864154810994778</v>
+        <v>6.854121655603937</v>
       </c>
       <c r="I14">
-        <v>3.271531167135413</v>
+        <v>3.252807286551788</v>
       </c>
       <c r="J14">
-        <v>8.203195232477473</v>
+        <v>8.024661674040198</v>
       </c>
       <c r="K14">
-        <v>12.11633643791214</v>
+        <v>11.67944984765358</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.20777347358728</v>
       </c>
       <c r="M14">
-        <v>14.25349012749576</v>
+        <v>7.276823695640442</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.15464511549227</v>
       </c>
       <c r="P14">
-        <v>11.55498057465609</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.28538545346441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.63040467133275</v>
+      </c>
+      <c r="S14">
+        <v>12.79771870527889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6336406122716</v>
+        <v>15.28534088820612</v>
       </c>
       <c r="C15">
-        <v>10.17135272918429</v>
+        <v>10.46225137483636</v>
       </c>
       <c r="D15">
-        <v>9.072940124091042</v>
+        <v>9.068694569680014</v>
       </c>
       <c r="E15">
-        <v>10.21178964166549</v>
+        <v>10.16393204939368</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.33882876069267</v>
+        <v>20.54016467050793</v>
       </c>
       <c r="H15">
-        <v>7.059695270160613</v>
+        <v>7.050609519725061</v>
       </c>
       <c r="I15">
-        <v>3.254792491694341</v>
+        <v>3.239386553994078</v>
       </c>
       <c r="J15">
-        <v>8.168802777774543</v>
+        <v>8.06080908699265</v>
       </c>
       <c r="K15">
-        <v>12.07017282556875</v>
+        <v>11.65596153351126</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.20213174718158</v>
       </c>
       <c r="M15">
-        <v>14.15285537155222</v>
+        <v>7.231040208510755</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.06226176507978</v>
       </c>
       <c r="P15">
-        <v>11.5780168272513</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.1839963313636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.65016352893678</v>
+      </c>
+      <c r="S15">
+        <v>12.72809906240593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.153851983923</v>
+        <v>14.85678834767265</v>
       </c>
       <c r="C16">
-        <v>9.924682402023816</v>
+        <v>10.22887475885622</v>
       </c>
       <c r="D16">
-        <v>8.77604479555283</v>
+        <v>8.773096254769532</v>
       </c>
       <c r="E16">
-        <v>10.12785415533777</v>
+        <v>10.09310010851996</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.13300602146803</v>
+        <v>19.49886938736314</v>
       </c>
       <c r="H16">
-        <v>6.790183853063347</v>
+        <v>6.783663872119808</v>
       </c>
       <c r="I16">
-        <v>3.171833598655077</v>
+        <v>3.169865533501971</v>
       </c>
       <c r="J16">
-        <v>8.194927579758362</v>
+        <v>8.380199151827259</v>
       </c>
       <c r="K16">
-        <v>12.14852729425286</v>
+        <v>11.79497445918301</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.33886644209569</v>
       </c>
       <c r="M16">
-        <v>13.7634315663097</v>
+        <v>7.237371938520545</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.71222308548846</v>
       </c>
       <c r="P16">
-        <v>11.65546903050747</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.17389976147905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.70208898158567</v>
+      </c>
+      <c r="S16">
+        <v>12.82881943212877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91477980491502</v>
+        <v>14.63405401791161</v>
       </c>
       <c r="C17">
-        <v>9.870858502420212</v>
+        <v>10.19380843704874</v>
       </c>
       <c r="D17">
-        <v>8.590410297218284</v>
+        <v>8.588064036755906</v>
       </c>
       <c r="E17">
-        <v>12.39050999812097</v>
+        <v>12.36543896615736</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.50578537004175</v>
+        <v>19.50763423573168</v>
       </c>
       <c r="H17">
-        <v>6.082337877752034</v>
+        <v>6.076494109544866</v>
       </c>
       <c r="I17">
-        <v>3.128670320293736</v>
+        <v>3.133451336646983</v>
       </c>
       <c r="J17">
-        <v>8.290944027837991</v>
+        <v>8.599055999109414</v>
       </c>
       <c r="K17">
-        <v>12.31534860696217</v>
+        <v>11.97144543172935</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.48592733766336</v>
       </c>
       <c r="M17">
-        <v>13.59438875125799</v>
+        <v>7.3269837074537</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.56069552015106</v>
       </c>
       <c r="P17">
-        <v>11.68626275169357</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.37317406621232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.71774369388202</v>
+      </c>
+      <c r="S17">
+        <v>13.06228491113052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.87577659425109</v>
+        <v>14.58720074491747</v>
       </c>
       <c r="C18">
-        <v>9.96662023488703</v>
+        <v>10.32630548339335</v>
       </c>
       <c r="D18">
-        <v>8.483687050735465</v>
+        <v>8.481518918747463</v>
       </c>
       <c r="E18">
-        <v>17.12519701055434</v>
+        <v>17.105308208607</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21.43871238993984</v>
+        <v>20.25983031506993</v>
       </c>
       <c r="H18">
-        <v>4.991309778989883</v>
+        <v>4.984502232558597</v>
       </c>
       <c r="I18">
-        <v>3.114208005630969</v>
+        <v>3.119912486520613</v>
       </c>
       <c r="J18">
-        <v>8.46075654192617</v>
+        <v>8.809105262680744</v>
       </c>
       <c r="K18">
-        <v>12.58844132750104</v>
+        <v>12.2217595211665</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.67579116783906</v>
       </c>
       <c r="M18">
-        <v>13.60371901879643</v>
+        <v>7.509626378629831</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.57734464199685</v>
       </c>
       <c r="P18">
-        <v>11.68287539430221</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.78305710942352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.70308990522006</v>
+      </c>
+      <c r="S18">
+        <v>13.4640448735291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.97930192129223</v>
+        <v>14.66611740794833</v>
       </c>
       <c r="C19">
-        <v>10.22169880815706</v>
+        <v>10.63610195258278</v>
       </c>
       <c r="D19">
-        <v>8.450020172645662</v>
+        <v>8.447705022427829</v>
       </c>
       <c r="E19">
-        <v>23.5036720446313</v>
+        <v>23.48468511808938</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.6834160326127</v>
+        <v>21.41032904350453</v>
       </c>
       <c r="H19">
-        <v>3.910540859465729</v>
+        <v>3.900648833704742</v>
       </c>
       <c r="I19">
-        <v>3.135142033098094</v>
+        <v>3.139262515326771</v>
       </c>
       <c r="J19">
-        <v>8.667186260286517</v>
+        <v>9.010992800817705</v>
       </c>
       <c r="K19">
-        <v>12.90537824494264</v>
+        <v>12.49638066681296</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.87532463374634</v>
       </c>
       <c r="M19">
-        <v>13.7592303882871</v>
+        <v>7.736235190164273</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.73426027781857</v>
       </c>
       <c r="P19">
-        <v>11.65858068333515</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.30602615972453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.66994657044778</v>
+      </c>
+      <c r="S19">
+        <v>13.9535604497183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.5144609043597</v>
+        <v>15.13318290611658</v>
       </c>
       <c r="C20">
-        <v>10.82818043900201</v>
+        <v>11.3408811422592</v>
       </c>
       <c r="D20">
-        <v>8.623614033017034</v>
+        <v>8.620236458286261</v>
       </c>
       <c r="E20">
-        <v>33.6723480101271</v>
+        <v>33.64686643195816</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.8351116413732</v>
+        <v>23.69209173897686</v>
       </c>
       <c r="H20">
-        <v>3.483087615268857</v>
+        <v>3.46467791532139</v>
       </c>
       <c r="I20">
-        <v>3.240864281656915</v>
+        <v>3.232270149304172</v>
       </c>
       <c r="J20">
-        <v>8.987159508502268</v>
+        <v>9.189505852106675</v>
       </c>
       <c r="K20">
-        <v>13.37949945153655</v>
+        <v>12.86843094465859</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.10094520145534</v>
       </c>
       <c r="M20">
-        <v>14.30992834363206</v>
+        <v>8.133161800310489</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.27129729152652</v>
       </c>
       <c r="P20">
-        <v>11.56552951897258</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.16914142509185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.57051648390595</v>
+      </c>
+      <c r="S20">
+        <v>14.71209480668368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.44993234957638</v>
+        <v>15.95798402247263</v>
       </c>
       <c r="C21">
-        <v>11.41723156282788</v>
+        <v>11.91197777822879</v>
       </c>
       <c r="D21">
-        <v>9.165775104432369</v>
+        <v>9.1596598858518</v>
       </c>
       <c r="E21">
-        <v>36.42784314955305</v>
+        <v>36.38472090015502</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.84409878061239</v>
+        <v>26.44358998799292</v>
       </c>
       <c r="H21">
-        <v>3.786834530232033</v>
+        <v>3.755463794424093</v>
       </c>
       <c r="I21">
-        <v>3.412249638864612</v>
+        <v>3.376675974410333</v>
       </c>
       <c r="J21">
-        <v>9.061824995752758</v>
+        <v>8.478348148162544</v>
       </c>
       <c r="K21">
-        <v>13.42634467552161</v>
+        <v>12.73424503285404</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.87547110195607</v>
       </c>
       <c r="M21">
-        <v>15.10845682907722</v>
+        <v>8.28095467067153</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.98923066328762</v>
       </c>
       <c r="P21">
-        <v>11.38795352390673</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.48586709154413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.41862175482398</v>
+      </c>
+      <c r="S21">
+        <v>14.75720564974217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.03606571523038</v>
+        <v>16.47403202654849</v>
       </c>
       <c r="C22">
-        <v>11.74551187267119</v>
+        <v>12.21777609112457</v>
       </c>
       <c r="D22">
-        <v>9.505420201647651</v>
+        <v>9.497416780584423</v>
       </c>
       <c r="E22">
-        <v>37.71948047695176</v>
+        <v>37.66517433252529</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.44934704815466</v>
+        <v>28.28850652664011</v>
       </c>
       <c r="H22">
-        <v>3.963791338631792</v>
+        <v>3.924240316118609</v>
       </c>
       <c r="I22">
-        <v>3.516366804988865</v>
+        <v>3.462538931043833</v>
       </c>
       <c r="J22">
-        <v>9.105833158440953</v>
+        <v>8.02523833370938</v>
       </c>
       <c r="K22">
-        <v>13.45713933380011</v>
+        <v>12.63837305404469</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.72556194077638</v>
       </c>
       <c r="M22">
-        <v>15.59496903595404</v>
+        <v>8.3793346918228</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.4211686983543</v>
       </c>
       <c r="P22">
-        <v>11.27449009736222</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.67640677940324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.32442274826782</v>
+      </c>
+      <c r="S22">
+        <v>14.75879963647834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.73970881255417</v>
+        <v>16.22038888091086</v>
       </c>
       <c r="C23">
-        <v>11.54745739030256</v>
+        <v>12.04438648244167</v>
       </c>
       <c r="D23">
-        <v>9.325531366531015</v>
+        <v>9.318649408809597</v>
       </c>
       <c r="E23">
-        <v>37.03568193630208</v>
+        <v>36.98803004534561</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.16345083095764</v>
+        <v>27.13626419858944</v>
       </c>
       <c r="H23">
-        <v>3.870067805743612</v>
+        <v>3.835385296798089</v>
       </c>
       <c r="I23">
-        <v>3.457716983117646</v>
+        <v>3.413079481524214</v>
       </c>
       <c r="J23">
-        <v>9.088783610392511</v>
+        <v>8.340349698541015</v>
       </c>
       <c r="K23">
-        <v>13.4580445776903</v>
+        <v>12.71965057471307</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.82406214575623</v>
       </c>
       <c r="M23">
-        <v>15.33729512873188</v>
+        <v>8.353731512803005</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.20064537351498</v>
       </c>
       <c r="P23">
-        <v>11.33482138989637</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.59070957664283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.37252158665719</v>
+      </c>
+      <c r="S23">
+        <v>14.79734315737784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.54060107085795</v>
+        <v>15.15739972381614</v>
       </c>
       <c r="C24">
-        <v>10.81276882676501</v>
+        <v>11.32938205855242</v>
       </c>
       <c r="D24">
-        <v>8.615198664299681</v>
+        <v>8.611809608683442</v>
       </c>
       <c r="E24">
-        <v>34.33418385410884</v>
+        <v>34.30860841460393</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.01964354425622</v>
+        <v>23.85652047862405</v>
       </c>
       <c r="H24">
-        <v>3.507174521394258</v>
+        <v>3.488648548246858</v>
       </c>
       <c r="I24">
-        <v>3.236998625062935</v>
+        <v>3.226167398975825</v>
       </c>
       <c r="J24">
-        <v>9.019657898257202</v>
+        <v>9.22571498616465</v>
       </c>
       <c r="K24">
-        <v>13.44271353562814</v>
+        <v>12.92644852050161</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.14344631612347</v>
       </c>
       <c r="M24">
-        <v>14.32035399327218</v>
+        <v>8.179845423915973</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.28229466260765</v>
       </c>
       <c r="P24">
-        <v>11.56574991876324</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.24953416733711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.56843822414349</v>
+      </c>
+      <c r="S24">
+        <v>14.79011977532283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13006580903327</v>
+        <v>13.83821186981224</v>
       </c>
       <c r="C25">
-        <v>9.971966043666461</v>
+        <v>10.34669240116838</v>
       </c>
       <c r="D25">
-        <v>7.786236176465169</v>
+        <v>7.784974311097663</v>
       </c>
       <c r="E25">
-        <v>31.18090269217794</v>
+        <v>31.17022139110633</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.78703677618925</v>
+        <v>22.58076245427602</v>
       </c>
       <c r="H25">
-        <v>3.099316005819422</v>
+        <v>3.091664163308339</v>
       </c>
       <c r="I25">
-        <v>2.991727688667505</v>
+        <v>3.008770111303743</v>
       </c>
       <c r="J25">
-        <v>8.958148863806631</v>
+        <v>9.244611172602323</v>
       </c>
       <c r="K25">
-        <v>13.44691752962735</v>
+        <v>13.01218413717955</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.40159877971759</v>
       </c>
       <c r="M25">
-        <v>13.13649341088603</v>
+        <v>7.920034619529963</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.11401375560721</v>
       </c>
       <c r="P25">
-        <v>11.81976544068527</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.90296422765192</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.79661500524249</v>
+      </c>
+      <c r="S25">
+        <v>14.54103323481338</v>
       </c>
     </row>
   </sheetData>
